--- a/data/hotels_by_city/Houston/Houston_shard_157.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_157.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56764-d106245-Reviews-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-Houston-The-Woodlands.h62916.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1611 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r567961506-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>106245</t>
+  </si>
+  <si>
+    <t>567961506</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Great location with decent price</t>
+  </si>
+  <si>
+    <t>Was there for business, great location to the waterways and food. Price is decent. No downside surprises for the entire stay which is good. Love the bed and quietness. Bistro staff is excellent, they can remember my choice from the previous orders. Will recommend my colleagues and will definitely come back again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rachel F, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Was there for business, great location to the waterways and food. Price is decent. No downside surprises for the entire stay which is good. Love the bed and quietness. Bistro staff is excellent, they can remember my choice from the previous orders. Will recommend my colleagues and will definitely come back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r545119064-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>545119064</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Cozy</t>
+  </si>
+  <si>
+    <t>This hotel was a nice little retreat away from the bustling city. The staff that checked me in was very accommodating and made me feel welcomed during my stay. If I am back in the area soon I will be stopping by again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Rachel F, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was a nice little retreat away from the bustling city. The staff that checked me in was very accommodating and made me feel welcomed during my stay. If I am back in the area soon I will be stopping by again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r544101474-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>544101474</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff at Courtyard Houston The Woodlands</t>
+  </si>
+  <si>
+    <t>From the Tuesday before Thanksgiving through the following Tuesday, my wife and I were visiting our daughter, who lives in The Woodlands area. We had stayed here before back in late 2015/early 2016  [check-in Dec 22 - check-out January 4]. The hotel was a perfect base of operations for doing things in the area. You can walk across the street to a mall with shops and restaurants. The hotel is within a short drive of other conveniences. We had most of our breakfasts at the Bistro restaurant in the hotel. The front desk staff and Bistro staff were friendly and helpful. [We were not traveling with children, but there were families with children staying at the hotel. Based on our observations, the kids loved the pool.]MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>From the Tuesday before Thanksgiving through the following Tuesday, my wife and I were visiting our daughter, who lives in The Woodlands area. We had stayed here before back in late 2015/early 2016  [check-in Dec 22 - check-out January 4]. The hotel was a perfect base of operations for doing things in the area. You can walk across the street to a mall with shops and restaurants. The hotel is within a short drive of other conveniences. We had most of our breakfasts at the Bistro restaurant in the hotel. The front desk staff and Bistro staff were friendly and helpful. [We were not traveling with children, but there were families with children staying at the hotel. Based on our observations, the kids loved the pool.]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r511433825-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>511433825</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>This hotel has been recently updated. The amenities were very nice. The entire place was clean. Our room was very comfortable. Loved the shower and the sleeper sofa. Close to restaurants and shopping. The best part was the front desk agent, Tameka. She was incredibly helpful and sweet! She really made our stay enjoyable. I'd highly recommend to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has been recently updated. The amenities were very nice. The entire place was clean. Our room was very comfortable. Loved the shower and the sleeper sofa. Close to restaurants and shopping. The best part was the front desk agent, Tameka. She was incredibly helpful and sweet! She really made our stay enjoyable. I'd highly recommend to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r500517918-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>500517918</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Arrived late, wonderful staff</t>
+  </si>
+  <si>
+    <t>Although I was a very late arrival thanks to storms while flying causing delays, the staff checking me in was cheerful, attentive and empathic.  Had breakfast of avocado toast which was excellent.  The staff serving was also cheerful and attentive.  I was afforded a late check out due to reward status, and this was really appreciated so that I could change before flying back across the country after an interview.Thank you for a nice clean room for which to rest my head after a very long travel day.  The environment was quiet which was much appreciated.  Good black-out curtains!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Although I was a very late arrival thanks to storms while flying causing delays, the staff checking me in was cheerful, attentive and empathic.  Had breakfast of avocado toast which was excellent.  The staff serving was also cheerful and attentive.  I was afforded a late check out due to reward status, and this was really appreciated so that I could change before flying back across the country after an interview.Thank you for a nice clean room for which to rest my head after a very long travel day.  The environment was quiet which was much appreciated.  Good black-out curtains!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r500432828-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>500432828</t>
+  </si>
+  <si>
+    <t>Stayed for a wedding and everything was pretty smooth</t>
+  </si>
+  <si>
+    <t>At check-in front desk was very nice and helpful. Room was nice and cool when entering. You can see some minor caulking and wall paper issues in the bathroom/shower. Bed and pillows were in great shape. Housekeeping was very friendly.  Hot tub and pool were great experiences. Breakfast was a good way to start the day. No problems with billing and checkout was smooth. Multiple workers asked how things were going and if any help was needed with zero prompting. Always got a have a great day and thank you's. Would not hesitate to stay again. Right off I-45 and easy access to many food and shopping places.MoreShow less</t>
+  </si>
+  <si>
+    <t>At check-in front desk was very nice and helpful. Room was nice and cool when entering. You can see some minor caulking and wall paper issues in the bathroom/shower. Bed and pillows were in great shape. Housekeeping was very friendly.  Hot tub and pool were great experiences. Breakfast was a good way to start the day. No problems with billing and checkout was smooth. Multiple workers asked how things were going and if any help was needed with zero prompting. Always got a have a great day and thank you's. Would not hesitate to stay again. Right off I-45 and easy access to many food and shopping places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r492332701-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>492332701</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Nice typical Marriott</t>
+  </si>
+  <si>
+    <t>Nothing unusual here in terms of Courtyard hotels. Nicely hidden in woods off Interstate 45. Rooms were nice, clean. Staff was very good. Very easy in and out. Nice choice if you are Marriott junkie and are in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Nothing unusual here in terms of Courtyard hotels. Nicely hidden in woods off Interstate 45. Rooms were nice, clean. Staff was very good. Very easy in and out. Nice choice if you are Marriott junkie and are in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r485139126-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>485139126</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Very clean****excellent customer service from all team members we came in contact with.</t>
+  </si>
+  <si>
+    <t>Very clean!  Nice exercise area and indoor pool.  All team members very knowledgeable of the area.  Nothing but positive attitudes observed.  Although, we did not utilize there is a restaurant in the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Very clean!  Nice exercise area and indoor pool.  All team members very knowledgeable of the area.  Nothing but positive attitudes observed.  Although, we did not utilize there is a restaurant in the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r483529805-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>483529805</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel for business</t>
+  </si>
+  <si>
+    <t>Typical Courtyard...renovated lobby but old style bedrooms. Excellent location right off southbound feeder off I-45. Walking distance to stores and, a bit farther afield, to the Woodlands Mall. It's usually pretty busy so rates can be elevated - I paid $230/night for my last stay but easily cheaper than the Marriott Waterway and parking is free!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Typical Courtyard...renovated lobby but old style bedrooms. Excellent location right off southbound feeder off I-45. Walking distance to stores and, a bit farther afield, to the Woodlands Mall. It's usually pretty busy so rates can be elevated - I paid $230/night for my last stay but easily cheaper than the Marriott Waterway and parking is free!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r456881260-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>456881260</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>That's how this chain should always be</t>
+  </si>
+  <si>
+    <t>New, welcoming looks, spacious. Very large king room that is not far from four star hotel looks (except for the ordinarily small bathroom). Too bad that even new aircon machines in the US seem invariably low tech and noisy even at low fan speed. Staff seems to care, which is not a given these days.  I found all surfaces in the room and lobby / breakfast area squeaky clean. Decent gym although my treadmill was not very stable on the floor. A little expensive for a low occupancy night. But thumbs up for everything else!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>New, welcoming looks, spacious. Very large king room that is not far from four star hotel looks (except for the ordinarily small bathroom). Too bad that even new aircon machines in the US seem invariably low tech and noisy even at low fan speed. Staff seems to care, which is not a given these days.  I found all surfaces in the room and lobby / breakfast area squeaky clean. Decent gym although my treadmill was not very stable on the floor. A little expensive for a low occupancy night. But thumbs up for everything else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r455262488-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>455262488</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel and staff</t>
+  </si>
+  <si>
+    <t>I have been staying here for a few nights a week over the past month and must say that I have enjoyed each stay. The location is ideal for me and close to lots of restaurants and shopping. There is a small convenience store in the hotel providing soda, water, snacks, and a restaurant area with a small bar. There is an indoor pool and gym, as well as a nice outside area to sit in and un-wind at night. The rooms are nice, especially the ones with balconies. There is plenty of on-site parking that is free. I have definitely enjoyed my stays, and will continue to stay here on my visits to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>I have been staying here for a few nights a week over the past month and must say that I have enjoyed each stay. The location is ideal for me and close to lots of restaurants and shopping. There is a small convenience store in the hotel providing soda, water, snacks, and a restaurant area with a small bar. There is an indoor pool and gym, as well as a nice outside area to sit in and un-wind at night. The rooms are nice, especially the ones with balconies. There is plenty of on-site parking that is free. I have definitely enjoyed my stays, and will continue to stay here on my visits to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r440958454-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>440958454</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Only problem wifi weak</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights for a wedding near by. Staff were very welcoming and friendly. Rooms were comfortable and clean. Everything wonderful but small complaint would be wifi to slow. I had to switch to my global roaming mode as hotel wifi too slow and very weak signallMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights for a wedding near by. Staff were very welcoming and friendly. Rooms were comfortable and clean. Everything wonderful but small complaint would be wifi to slow. I had to switch to my global roaming mode as hotel wifi too slow and very weak signallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r428719168-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>428719168</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Beyond Impressed</t>
+  </si>
+  <si>
+    <t>We have had incredible service since we arrived. The food is excellent, literally restaurant quality. Our room wasn't ready upon arrival so we were upgraded to a very nice room without our rate increasing. The manager was very attentive to all guests, literally the minute she walked in before getting a chance to place down her purse she walked right up to each and every guest dining or sitting in the lounge/lobby and asked them how their stay has been. It's rare to find a hotel manager as caring and attentive as she is! This will be the only hotel we ever stay at when we visit the Woodlands!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r427471787-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>427471787</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Relaxing updated room</t>
+  </si>
+  <si>
+    <t>Very comfortable room with high ceilings, quality furniture, wallpaper and art were based on nature.  Bed was comfortable, pool area was clean and well furnished, front desk personnel were friendly and knowledgeable.  Nice reception area/grill although we didn't eat there.  Not far from interstate but quiet even though our room was on the first floor. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Very comfortable room with high ceilings, quality furniture, wallpaper and art were based on nature.  Bed was comfortable, pool area was clean and well furnished, front desk personnel were friendly and knowledgeable.  Nice reception area/grill although we didn't eat there.  Not far from interstate but quiet even though our room was on the first floor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r422637049-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>422637049</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Atmosphere...Awesome Customer Service </t>
+  </si>
+  <si>
+    <t>I loved this place.  A+ customer service, peaceful atmosphere....the only issue I had was noise barrier between floors.  I heard the people above me walking.  Other than that.....the coffee shop...the bistro....the front desk...and housekeeping were superb!  Thank you for making our time there special.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>I loved this place.  A+ customer service, peaceful atmosphere....the only issue I had was noise barrier between floors.  I heard the people above me walking.  Other than that.....the coffee shop...the bistro....the front desk...and housekeeping were superb!  Thank you for making our time there special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r398116796-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>398116796</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Nice stay with decent breakfast</t>
+  </si>
+  <si>
+    <t>Better than typical continental breakfast as we had sandwiches similar to the Starbucks offerings. The room was comfortable and the feather pillows we requested were perfect too. Friendly fast check in and this place is a 5!This is right near the mall and everything else trendy in the woodlands so it's a perfect, quick, clean, cheaper option!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Better than typical continental breakfast as we had sandwiches similar to the Starbucks offerings. The room was comfortable and the feather pillows we requested were perfect too. Friendly fast check in and this place is a 5!This is right near the mall and everything else trendy in the woodlands so it's a perfect, quick, clean, cheaper option!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r372221621-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>372221621</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Great staff, Good Amenities</t>
+  </si>
+  <si>
+    <t>Great staff and good amenities.The property does need a refresh though. The rooms seems to be a bit dated and the bathroom had a horrible mole smell and visible black mold as well. My shower was draining slow one night but a nice young man named Tony who was the Chief Engineer on duty at the time, came up quickly and solved the issue as I expect from a Marriott employee. I would still recommend this property based on its location, amenities and staff. But you do have a brand new courtyard right across the freeway that is more updated and they are currently building a new courtyard 5 minutes south from this location near the new Exxon campus. So this property would need a major update to keep up with their competition.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Great staff and good amenities.The property does need a refresh though. The rooms seems to be a bit dated and the bathroom had a horrible mole smell and visible black mold as well. My shower was draining slow one night but a nice young man named Tony who was the Chief Engineer on duty at the time, came up quickly and solved the issue as I expect from a Marriott employee. I would still recommend this property based on its location, amenities and staff. But you do have a brand new courtyard right across the freeway that is more updated and they are currently building a new courtyard 5 minutes south from this location near the new Exxon campus. So this property would need a major update to keep up with their competition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r367591248-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>367591248</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience </t>
+  </si>
+  <si>
+    <t>Rooms were nice and clean. Staff (Idalis)very friendly and helpful. Printed out directions to restaurant.  Made excellent suggestions btw. Attended event at Cynthia Mitchell Woods Pavillion. Shuttle runs by hotel every 15 minutes. $10/pp round-trip. Food pantry located in lobby as well as Bistro/Bar. Shopping/Malls close by. Indoor pool was a plus. Overall great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were nice and clean. Staff (Idalis)very friendly and helpful. Printed out directions to restaurant.  Made excellent suggestions btw. Attended event at Cynthia Mitchell Woods Pavillion. Shuttle runs by hotel every 15 minutes. $10/pp round-trip. Food pantry located in lobby as well as Bistro/Bar. Shopping/Malls close by. Indoor pool was a plus. Overall great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r356534037-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>356534037</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff sets it apart</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family, clean room, nicely updated hotel.  Staff was very friendly and tried very hard to provide good service.  Outstanding Wifi, was able to stream recoded TV shows from my home DVR in Illinois to my room in the hotel with no problems.  Enjoyed the pool, not much outdoor space though.  There was a courtyard where the door locked immediately behind you as exited the building, not good.  Lobby eating area / restaurant was OK.  Kind of a loud location near a freeway, but there is a lot to do around the hotel and a lot of good restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting family, clean room, nicely updated hotel.  Staff was very friendly and tried very hard to provide good service.  Outstanding Wifi, was able to stream recoded TV shows from my home DVR in Illinois to my room in the hotel with no problems.  Enjoyed the pool, not much outdoor space though.  There was a courtyard where the door locked immediately behind you as exited the building, not good.  Lobby eating area / restaurant was OK.  Kind of a loud location near a freeway, but there is a lot to do around the hotel and a lot of good restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r354460020-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>354460020</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Marriott - up to the standards you would expect</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay at this Marriott Courtyard Hotel.  I would say this hotel is above the standards of the average Marriott Courtyard.  They have a little bistro near the lobby for breakfast and espresso.  A short drive to a nice mall, other shopping and good restaurants.  Good Wifi connection.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r354397169-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>354397169</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Stayed in the Courtyard for 2 weeks. Very good service. Special thanks to Adriana who served drinks in the evening. Excellent bar tender who served always with a smile. Hotel rooms are clean and every day clean towels. Despite that the hotel is located at I45, it is quiet and no problem with sleeping.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r340803037-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>340803037</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay at The Woodlands Courtyard Marriott while visiting our daughter.</t>
+  </si>
+  <si>
+    <t>Here is what we said in response to an email from the assistant general manager asking how things were going with our stay:We completed our almost-two-week stay [check-in Dec 22 - Check-out January 4] at The Woodlands Courtyard over a week ago, and only now do we have an opportunity to reply to your email. To put it briefly, we were very pleased and satisfied with our stay.The front desk staff was friendly and helpful. Robbie at the front desk was especially helpful with arranging for the switch to another Courtyard near Hobby Airport at the conclusion of our stay.We had breakfast at the Bistro restaurant several times during our stay and were pleased with the food and service.We would recommend this hotel to anyone planning a stay in The Woodlands area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Here is what we said in response to an email from the assistant general manager asking how things were going with our stay:We completed our almost-two-week stay [check-in Dec 22 - Check-out January 4] at The Woodlands Courtyard over a week ago, and only now do we have an opportunity to reply to your email. To put it briefly, we were very pleased and satisfied with our stay.The front desk staff was friendly and helpful. Robbie at the front desk was especially helpful with arranging for the switch to another Courtyard near Hobby Airport at the conclusion of our stay.We had breakfast at the Bistro restaurant several times during our stay and were pleased with the food and service.We would recommend this hotel to anyone planning a stay in The Woodlands area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r340649574-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>340649574</t>
+  </si>
+  <si>
+    <t>Nice hotel but far from center</t>
+  </si>
+  <si>
+    <t>The hotel is nice but far from the center. They have a bar-restaurant open till 10pm. The service is excellent. I staid there twice in two month and will certainly come back there. Sleep quality is good and rooms are big.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The hotel is nice but far from the center. They have a bar-restaurant open till 10pm. The service is excellent. I staid there twice in two month and will certainly come back there. Sleep quality is good and rooms are big.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r339363666-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>339363666</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Daughter's Birthday</t>
+  </si>
+  <si>
+    <t>I booked 2 adjoining rooms so that my daughter and her 2 friends could celebrate her 13th birthday in your indoor pool, as she has always wanted a pool party and could never have one due to the fact that her birthday is usually always cold being that it's in the winter. Your front desk staff, Tasha and Jason, made her stay extremely special by giving her a card and a bag full of goodies! They really made her day!! We both appreciated the fact that they took the time to arrange something for her and make her feel so special! Way to go, Tasha and Jason!! Thank you so much! MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>I booked 2 adjoining rooms so that my daughter and her 2 friends could celebrate her 13th birthday in your indoor pool, as she has always wanted a pool party and could never have one due to the fact that her birthday is usually always cold being that it's in the winter. Your front desk staff, Tasha and Jason, made her stay extremely special by giving her a card and a bag full of goodies! They really made her day!! We both appreciated the fact that they took the time to arrange something for her and make her feel so special! Way to go, Tasha and Jason!! Thank you so much! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r317868704-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>317868704</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>A little hard to find</t>
+  </si>
+  <si>
+    <t>The rooms were clean, comfortable, quiet but a little tight.  The beds were comfortable too. It was in an area accessible to lots of restaurants and shopping. The bartender was very rude to us when she told us that we had missed the last call by three minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were clean, comfortable, quiet but a little tight.  The beds were comfortable too. It was in an area accessible to lots of restaurants and shopping. The bartender was very rude to us when she told us that we had missed the last call by three minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r314402869-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>314402869</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Staff!</t>
+  </si>
+  <si>
+    <t>It's hard to find a high quality hotel in The Woodlands. Lots of mid-range places like Courtyard. I've stayed in them all and can safely say that Courtyard Marriott has the most friendly and helpful staff of any other hotel at a similar price point. Hotel and room conditions are very nice and in good condition. Dining area is good with quality food. Staff is as good as it comes. Far above what would be expected at this price point. Highly recommend this place if you are staying in the Woodlands. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>It's hard to find a high quality hotel in The Woodlands. Lots of mid-range places like Courtyard. I've stayed in them all and can safely say that Courtyard Marriott has the most friendly and helpful staff of any other hotel at a similar price point. Hotel and room conditions are very nice and in good condition. Dining area is good with quality food. Staff is as good as it comes. Far above what would be expected at this price point. Highly recommend this place if you are staying in the Woodlands. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r314386463-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>314386463</t>
+  </si>
+  <si>
+    <t>It does what it says on the Tin</t>
+  </si>
+  <si>
+    <t>The hotel is as you would expect. Absolutely fine for business, good sized rooms with 2 large double beds. Balconies with many of the rooms. As for EVEN numbered rooms to avoid being disturbed by the I-45 traffic noise.Well located for the Woodlands Malls. 20 minute walk to Market street. The Woodlands is as safe as anywhere to walk.I would absolutely not recommend the hotel restaurant - there are so many to choose from nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is as you would expect. Absolutely fine for business, good sized rooms with 2 large double beds. Balconies with many of the rooms. As for EVEN numbered rooms to avoid being disturbed by the I-45 traffic noise.Well located for the Woodlands Malls. 20 minute walk to Market street. The Woodlands is as safe as anywhere to walk.I would absolutely not recommend the hotel restaurant - there are so many to choose from nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r298012656-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>298012656</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>New hotel with all you need for a great stay</t>
+  </si>
+  <si>
+    <t>This hotel is very new, the beds, tables and everything in it seem very new or just replaced. The staff is very courteous and they are attentive to give you directions on where to go or where to eat. Staff was very helpful, they have plenty of parking spaces and they held the bags for s for a couple of hours after check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is very new, the beds, tables and everything in it seem very new or just replaced. The staff is very courteous and they are attentive to give you directions on where to go or where to eat. Staff was very helpful, they have plenty of parking spaces and they held the bags for s for a couple of hours after check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r292239398-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>292239398</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Perfect hotel</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel that is spotless. The staff is very friendly and helpful. It is very new so all of the furnishings are perfect. This will be my new go-to hotel when visiting the Woodlands and ConroeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel that is spotless. The staff is very friendly and helpful. It is very new so all of the furnishings are perfect. This will be my new go-to hotel when visiting the Woodlands and ConroeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r287635426-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>287635426</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Two night stay in May 2015</t>
+  </si>
+  <si>
+    <t>Initially I had a little problem finding the hotel. However, after locating it, and checking in I was pleasantly surprised. It was very clean and modern. The staff was extremely pleasant and helpful. They have a nice little bistro and lounge which is staffed by competent staff. Overall, a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Initially I had a little problem finding the hotel. However, after locating it, and checking in I was pleasantly surprised. It was very clean and modern. The staff was extremely pleasant and helpful. They have a nice little bistro and lounge which is staffed by competent staff. Overall, a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r278260739-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>278260739</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Overnight for our first Iron Man</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff! Clean and tidy. We picked it for proximity to the race. We got breakfast with the room option and it was  a very good hot meal. Went out of their way to find me a local newspaper. The King w/sofa bed is tight when opened; no walking room.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r278192938-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>278192938</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay until our furniture showed up</t>
+  </si>
+  <si>
+    <t>We stayed here while in transit for our move.  Nice beds, good shower, clean towels.  Other than that we were working on our new house.  The front desk staff was most accommodating when our check out date kept changing based on the moving company's delivery date.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r277965349-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>277965349</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Typical Courtyard close to shopping and restaurants</t>
+  </si>
+  <si>
+    <t>Pretty typical Marriott Courtyard.  Comfortable bed, quite room, furnishings in pretty good condition and and the bathroom was clean.  The location is close to the mall, so shopping and lots of restaurants are close by.  It has quick and easy access to I-45.  Service was pretty good.  No reason to not stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r261217071-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>261217071</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Great Location for the Woodlands!</t>
+  </si>
+  <si>
+    <t>I stayed for business two nights in March, 2015, it was my first time to this part of Houston and the hotel was an older property but had been kept up nicely. The area surrounding the hotel was very nice with plenty of dining and shopping within a 3 minute drive or a 10 minute or so walk. The Woodlands mall was only a short distance away from the hotel and as well as many businesses, etc... The hotel breakfast was "OK" with not a lot of choices and an order only setup, no continental breakfast option available. It was about 15 minutes from IAH without traffic and took around around 35 minutes the evening of my arrival so not a bad location for the North side of Houston and the Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>I stayed for business two nights in March, 2015, it was my first time to this part of Houston and the hotel was an older property but had been kept up nicely. The area surrounding the hotel was very nice with plenty of dining and shopping within a 3 minute drive or a 10 minute or so walk. The Woodlands mall was only a short distance away from the hotel and as well as many businesses, etc... The hotel breakfast was "OK" with not a lot of choices and an order only setup, no continental breakfast option available. It was about 15 minutes from IAH without traffic and took around around 35 minutes the evening of my arrival so not a bad location for the North side of Houston and the Woodlands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r257006513-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>257006513</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, great location, and wonderful service. Julia, in the bistro, was a doll! She insisted on making my husband and I a fresh pot of coffee after the bistro had already closed one morning. We thoroughly enjoyed visiting with her and appreciated the extra effort she made to make our stay so enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, great location, and wonderful service. Julia, in the bistro, was a doll! She insisted on making my husband and I a fresh pot of coffee after the bistro had already closed one morning. We thoroughly enjoyed visiting with her and appreciated the extra effort she made to make our stay so enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r256013939-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>256013939</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Its just far enough off the freeway that you don't hear the street noise. Blow dryer, fridge, ironing board, coffee maker, free wifi, comfortable bed. Great personalities at the front desk. It was a home run.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Its just far enough off the freeway that you don't hear the street noise. Blow dryer, fridge, ironing board, coffee maker, free wifi, comfortable bed. Great personalities at the front desk. It was a home run.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r243839452-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>243839452</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel...incredible location</t>
+  </si>
+  <si>
+    <t>Stayed for a weekend visit for the first time in The Woodlands.  The front counter employees were very friendly and helpful upon check-in.  Got up to my room to discover it had a balcony with two chairs and a table.  First non-luxury hotel/resort I've stayed in that had an outdoor balcony.  There's not really an incredible view, but we def took advantage of sitting outside a couple times and enjoying the fresh air.  Within a short time of getting situated I got a call from the front desk asking if everything in my room was ok.  Another first for me.  The room was spacious as it had a loveseat, table, and a desk that expanded if you needed more room as a section of the desk rolled out to reveal more space.  Overall, had a great stay there.  From what I saw, they had a bistro, a workout room, and an indoor pool although we didn't take advantage of any of those.  If you are looking for a place to stay in the Woodlands/Conroe/Spring area, I would highly recommend staying here.  It was extremely close to the mall, a movie theater, a Target, a grocery store, a variety of other popular retail stores, and a nice selection of restaurants (both fast food and sit down.)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for a weekend visit for the first time in The Woodlands.  The front counter employees were very friendly and helpful upon check-in.  Got up to my room to discover it had a balcony with two chairs and a table.  First non-luxury hotel/resort I've stayed in that had an outdoor balcony.  There's not really an incredible view, but we def took advantage of sitting outside a couple times and enjoying the fresh air.  Within a short time of getting situated I got a call from the front desk asking if everything in my room was ok.  Another first for me.  The room was spacious as it had a loveseat, table, and a desk that expanded if you needed more room as a section of the desk rolled out to reveal more space.  Overall, had a great stay there.  From what I saw, they had a bistro, a workout room, and an indoor pool although we didn't take advantage of any of those.  If you are looking for a place to stay in the Woodlands/Conroe/Spring area, I would highly recommend staying here.  It was extremely close to the mall, a movie theater, a Target, a grocery store, a variety of other popular retail stores, and a nice selection of restaurants (both fast food and sit down.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r242630868-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>242630868</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>More for Less??</t>
+  </si>
+  <si>
+    <t>I had not stayed at this hotel before even though it is within walking distance of the Mall, Cynthia Mitchell Pavilion, restaurants and walking trails, parks, etc. It is next door to the Lakefront Residence Inn. There is another Residence Inn about a block away. As Exxon and other Fortune 500 companies are locating in the area it has caused hotel prices to rise. I decided to give this one a shot as it's price was much better than the other (you have to check them all-all are really great). The lobby décor was inviting as was the breakfast area and bar area with bistro. The room was spacious and of course you know the Marriott bed is like no other. Peaceful sitting area and work area. Unless you have a family and like the separation of bedrooms and living room that you get with a Residence Inn the Courtyard room is really more spacious and better laid out than the Residence Inn. The price is much more agreeable. After all the things to explore and do in The Woodlands one probably will not spend much time in their room. The grounds are wooded, parking convenient and yet you are just a few minutes from I-45 and there is a cafeteria next door that has an array of foods to please every appetite. Oh, I almost forgot, they have a Starbucks in the lobby and an indoor pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I had not stayed at this hotel before even though it is within walking distance of the Mall, Cynthia Mitchell Pavilion, restaurants and walking trails, parks, etc. It is next door to the Lakefront Residence Inn. There is another Residence Inn about a block away. As Exxon and other Fortune 500 companies are locating in the area it has caused hotel prices to rise. I decided to give this one a shot as it's price was much better than the other (you have to check them all-all are really great). The lobby décor was inviting as was the breakfast area and bar area with bistro. The room was spacious and of course you know the Marriott bed is like no other. Peaceful sitting area and work area. Unless you have a family and like the separation of bedrooms and living room that you get with a Residence Inn the Courtyard room is really more spacious and better laid out than the Residence Inn. The price is much more agreeable. After all the things to explore and do in The Woodlands one probably will not spend much time in their room. The grounds are wooded, parking convenient and yet you are just a few minutes from I-45 and there is a cafeteria next door that has an array of foods to please every appetite. Oh, I almost forgot, they have a Starbucks in the lobby and an indoor pool!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r240311825-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>240311825</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Would NOT come back.</t>
+  </si>
+  <si>
+    <t>It was my wedding weekend, and this hotel was booked for me and my bridesmaids. My mother called a day in advance to see what time was check in. We were told 11. We arrive at 2:45, and the woman at the counter is RUDE. first, she tells me out king suite isn't ready. Then she says we're too early. All the while constantly giving me attititude. My bridesmaids and I had to wait in the lobby for 35 minutes to get out room. No beverages or anything was offered. There was no hospitality whatsoever. I asked the woman at the front if my room could be cleaned when we left the next morning because my husband and I would come back after our wedding that night to start our honeymoon. I was assured it would be taken care of. The next morning when we left, I asked the same thing and was once again assured it would be taken care of. When my husband and I came back that night, the hotel room was a mess. Nothing had been cleaned. So my husband and I got to clean up the hotel room on our honeymoon. Fun right? Thanks for the crappy hospitality! MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>It was my wedding weekend, and this hotel was booked for me and my bridesmaids. My mother called a day in advance to see what time was check in. We were told 11. We arrive at 2:45, and the woman at the counter is RUDE. first, she tells me out king suite isn't ready. Then she says we're too early. All the while constantly giving me attititude. My bridesmaids and I had to wait in the lobby for 35 minutes to get out room. No beverages or anything was offered. There was no hospitality whatsoever. I asked the woman at the front if my room could be cleaned when we left the next morning because my husband and I would come back after our wedding that night to start our honeymoon. I was assured it would be taken care of. The next morning when we left, I asked the same thing and was once again assured it would be taken care of. When my husband and I came back that night, the hotel room was a mess. Nothing had been cleaned. So my husband and I got to clean up the hotel room on our honeymoon. Fun right? Thanks for the crappy hospitality! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r230963949-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>230963949</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Got this hotel from a deal in Groupon and I'm glad that it was near the pavillion for the concert we attended. It's clean, smells good as you walk in the room not musty at all. Although we stayed here just to sleep, it's a good staging point whenever you want to visit the attractions nearby. I just wanted to point out that the staff (Myrna) was very efficient in checking us in since there was a queue already building up when we got in. The room we were in on the 2nd floor was in the front but the noise level was negligible. The blackout curtains were sufficient to not wake me up after staying up late. The wifi is a little slow to my liking though. Also suggest to have an extended access time for the the pool on weekends. There's a shuttle (golf cart) that charges $5/passenger per way that goes to the pavilion I guess on nights that there's a concert/show. I think it's a bit much but what can you do. All in all, I would recommend this hotel and would come back here again when I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Got this hotel from a deal in Groupon and I'm glad that it was near the pavillion for the concert we attended. It's clean, smells good as you walk in the room not musty at all. Although we stayed here just to sleep, it's a good staging point whenever you want to visit the attractions nearby. I just wanted to point out that the staff (Myrna) was very efficient in checking us in since there was a queue already building up when we got in. The room we were in on the 2nd floor was in the front but the noise level was negligible. The blackout curtains were sufficient to not wake me up after staying up late. The wifi is a little slow to my liking though. Also suggest to have an extended access time for the the pool on weekends. There's a shuttle (golf cart) that charges $5/passenger per way that goes to the pavilion I guess on nights that there's a concert/show. I think it's a bit much but what can you do. All in all, I would recommend this hotel and would come back here again when I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r230706164-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>230706164</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>Simply put, this hotel gets the job done. My husband and I were in town for the Oddball Comedy Festival. We weren't planning on spending a lot of time in the hotel room. The location is in a good area, just not within walking distance of anything of importance, but a 2 minute car ride to Market Street, the Woodlands mall, etc. And, like I said, we weren't just going to be hanging out in the hotel, so I wasn't going to pay outrageous prices to stay on market street (even though it's very pretty at night!) The bed was comfortable with 6 pillows! Sleep is the most important behind cleanliness, and this hotel was clean. My only complaint is that our room smelled a little stale, I think it was the A/C.MoreShow less</t>
+  </si>
+  <si>
+    <t>Simply put, this hotel gets the job done. My husband and I were in town for the Oddball Comedy Festival. We weren't planning on spending a lot of time in the hotel room. The location is in a good area, just not within walking distance of anything of importance, but a 2 minute car ride to Market Street, the Woodlands mall, etc. And, like I said, we weren't just going to be hanging out in the hotel, so I wasn't going to pay outrageous prices to stay on market street (even though it's very pretty at night!) The bed was comfortable with 6 pillows! Sleep is the most important behind cleanliness, and this hotel was clean. My only complaint is that our room smelled a little stale, I think it was the A/C.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r227312049-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>227312049</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Great location in relation to the pavilion.Very clean, fresh hotel. Lobby had a nice market for snacks and medications as well as a "restaurant" that served small meals, alcoholic beverages and a limited Starbucks menu. Rooms were a good size and seemed to have been updated fairly recently.Parking lot was well lit and felt secure.Staff was extremely helpful and knowledgeable. Might help to have additional training on fire alarms though. Someone pulled the alarm at 2 a.m. and the poor guy working didn't have a clue how to shut it off. Fortunately one of the guests worked at another Courtyard and was able to decipher the codes and shut the thing off after what felt like an eternity.  Ecoserve taxi service (golf cart) runs before and after most concerts and is a great deal at $5. I will definitely choose this hotel for my next Woodlands outing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location in relation to the pavilion.Very clean, fresh hotel. Lobby had a nice market for snacks and medications as well as a "restaurant" that served small meals, alcoholic beverages and a limited Starbucks menu. Rooms were a good size and seemed to have been updated fairly recently.Parking lot was well lit and felt secure.Staff was extremely helpful and knowledgeable. Might help to have additional training on fire alarms though. Someone pulled the alarm at 2 a.m. and the poor guy working didn't have a clue how to shut it off. Fortunately one of the guests worked at another Courtyard and was able to decipher the codes and shut the thing off after what felt like an eternity.  Ecoserve taxi service (golf cart) runs before and after most concerts and is a great deal at $5. I will definitely choose this hotel for my next Woodlands outing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r210935066-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>210935066</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Once again, no surprises</t>
+  </si>
+  <si>
+    <t>In town for a concert and to visit relatives we spent two nights at the Courtyard just a couple of blocks away from the The Woodlands Mall. We found our room clean, comfortable, and quiet. The bed was wonderfully comfortable at the end of a long day of walking the Mall and concertizing.Staff professional, attentive, and pleasant to deal with.Good stay. We'll be back.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r208754956-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>208754956</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Close to I45 -- easy access but also road noise</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice (typical courtyard) with friendly staff and clean rooms.  Parking is an ease and its really close to Woodlands Mall, Market Street, Woodlands Hospital and I-45.  Beds were comfy and good water pressure.  Those are the pluses.  Here is the big negative -- TOO CLOSE to I45.  We had a room facing the highway (there is a Luby's cafeteria between the hotel and access road) but we could hear traffic 24 hours a day on I45.  Surprised they put a Gold level Elite in a room facing that way (the other side might be quieter).  We had a balcony (it overlooked the parking lot -- yea).  Only when the loud ac went on did it drown out the road noise.  And then the a/c -- I had it set for 62 so you would think we would be freezing. Oh no -- had it on auto and when it kicked on it was nice but loud.  Then it would kick off and the room got real warm and stuffy.  Complained to the desk after the first night and they said they would send someone up to look at it.  If they did, nothing changed.  Next time when in the area will consider one of the Residence Inns which are further from I-45.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice (typical courtyard) with friendly staff and clean rooms.  Parking is an ease and its really close to Woodlands Mall, Market Street, Woodlands Hospital and I-45.  Beds were comfy and good water pressure.  Those are the pluses.  Here is the big negative -- TOO CLOSE to I45.  We had a room facing the highway (there is a Luby's cafeteria between the hotel and access road) but we could hear traffic 24 hours a day on I45.  Surprised they put a Gold level Elite in a room facing that way (the other side might be quieter).  We had a balcony (it overlooked the parking lot -- yea).  Only when the loud ac went on did it drown out the road noise.  And then the a/c -- I had it set for 62 so you would think we would be freezing. Oh no -- had it on auto and when it kicked on it was nice but loud.  Then it would kick off and the room got real warm and stuffy.  Complained to the desk after the first night and they said they would send someone up to look at it.  If they did, nothing changed.  Next time when in the area will consider one of the Residence Inns which are further from I-45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r207022791-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>207022791</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Super clean, fantastic staff who always greet you. The beds are fantastic and rooms are very clean. A little hard to find behind the trees but worth the search. Wish they would tell you the food prices at the bistro so we just ate at the surrounding area restaurants. Right in the middle of all the great shopping and food area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Super clean, fantastic staff who always greet you. The beds are fantastic and rooms are very clean. A little hard to find behind the trees but worth the search. Wish they would tell you the food prices at the bistro so we just ate at the surrounding area restaurants. Right in the middle of all the great shopping and food area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r188890573-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>188890573</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The thing I like the most about any Marriott property is consistency. The staff is always friendly and the rooms are clean and comfortable. This Courtyard is conveniently located near great shopping and dining! Staff was awesome. Enjoyed a great Starbucks Latte every morning! Will stay here again when in The Woodlands! </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r187541731-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>187541731</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Very nice &amp; quiet</t>
+  </si>
+  <si>
+    <t>We stayed here for only one night in order to attend a funeral the next day. We just pretty much slept there. We didn't check in until about 10pm and left by 8am the next day. A relative used his points for our room and the check in seemed to go smoothly. Our king room was on the first floor facing the parking area. It was a quiet and very clean room. There was a refrigerator, but no microwave. The room was large. The vanity area is separate from the shower area and I like that. There wasn't a luggage rack and that's the only downfall I found with the room. The bed and pillows were comfortable. It's close to the Woodlands Mall and several restaurants. There is a Luby's right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for only one night in order to attend a funeral the next day. We just pretty much slept there. We didn't check in until about 10pm and left by 8am the next day. A relative used his points for our room and the check in seemed to go smoothly. Our king room was on the first floor facing the parking area. It was a quiet and very clean room. There was a refrigerator, but no microwave. The room was large. The vanity area is separate from the shower area and I like that. There wasn't a luggage rack and that's the only downfall I found with the room. The bed and pillows were comfortable. It's close to the Woodlands Mall and several restaurants. There is a Luby's right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r187035185-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>187035185</t>
+  </si>
+  <si>
+    <t>12/07/2013</t>
+  </si>
+  <si>
+    <t>Bring your own pillow!</t>
+  </si>
+  <si>
+    <t>The check in was great! The room was clean...except the big black curly hair in the restroom...gross. The bed was "just ok" nothing to rave about. What really ticked me off was the crappy pillows. For $200 a night ( including tax) the pillows should be not be lumpy! You could see the lumps before you touched them. There are 5 pillow on each bed. All 10 exactly the same. Wouldn't it be smart to have at least 2 firm pillows in the mix, 2 medium and 2 soft, with 4 cheap fillers? That way, every guest could find a pillow they liked? I couldn't get comfy and woke up with a sore neck and upper back. Sorry, Marriot, going cheap on the pillows is no way to earn a loyal guest. Oh, thanks for the exfoliation treatment with your small, rough towels. Good grief! They are too small to wrap around your body, we aren't big people. Breakfast was quick, and had a gluten free option, yeah. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded December 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2013</t>
+  </si>
+  <si>
+    <t>The check in was great! The room was clean...except the big black curly hair in the restroom...gross. The bed was "just ok" nothing to rave about. What really ticked me off was the crappy pillows. For $200 a night ( including tax) the pillows should be not be lumpy! You could see the lumps before you touched them. There are 5 pillow on each bed. All 10 exactly the same. Wouldn't it be smart to have at least 2 firm pillows in the mix, 2 medium and 2 soft, with 4 cheap fillers? That way, every guest could find a pillow they liked? I couldn't get comfy and woke up with a sore neck and upper back. Sorry, Marriot, going cheap on the pillows is no way to earn a loyal guest. Oh, thanks for the exfoliation treatment with your small, rough towels. Good grief! They are too small to wrap around your body, we aren't big people. Breakfast was quick, and had a gluten free option, yeah. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r181189213-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>181189213</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Icing on the top...</t>
+  </si>
+  <si>
+    <t>We were in town for the Lionel Richie concert! We had a wonderful time despite the rain. Our stay at the Courtyard was the icing on top. Stephanie was cordial upon check-in and even asked were we  in town for the concert! Room was very neat and clean. We could not have asked for better for our short stay. I went down the next morning for towels and had no problem! Stephanie and Lisa were very helpful and got me everything that I needed. I am attending a wedding next month in the area and I will be staying at the Courtyard Marriott! Great stay.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r178220005-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>178220005</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>The hotel that says "no."</t>
+  </si>
+  <si>
+    <t>This hotel was very expensive for a courtyard and for the location so I arrived expecting it to be worth it.  It wasn't.My coworker chose this hotel.  So I gave it a shot even though I sensed better values were nearby.The rooms were spacious, comfortable and clean, which is good.But that's where the good ends.We asked for a late checkout.  Even though we spent more than $500 for a hotel just off the interstate (for two rooms), nope, no late checkout.Since we paid full fare I asked for breakfast vouchers.  Nope.  (Other courtyards do this sometimes).Rather than take one from my room, I asked if I could have an extra do not disturb sign.  While she looked for one, we left without one.For as much as we paid, I expected more. Oh well.  Next time I will stay at another nearby hotel that is just as nice, half the price and includes free breakfast.  The courtyard was not bad, but for the price there are better options nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was very expensive for a courtyard and for the location so I arrived expecting it to be worth it.  It wasn't.My coworker chose this hotel.  So I gave it a shot even though I sensed better values were nearby.The rooms were spacious, comfortable and clean, which is good.But that's where the good ends.We asked for a late checkout.  Even though we spent more than $500 for a hotel just off the interstate (for two rooms), nope, no late checkout.Since we paid full fare I asked for breakfast vouchers.  Nope.  (Other courtyards do this sometimes).Rather than take one from my room, I asked if I could have an extra do not disturb sign.  While she looked for one, we left without one.For as much as we paid, I expected more. Oh well.  Next time I will stay at another nearby hotel that is just as nice, half the price and includes free breakfast.  The courtyard was not bad, but for the price there are better options nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r176077441-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>176077441</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Good location, higher prices</t>
+  </si>
+  <si>
+    <t>There are multiple Marriotts in The Woodlands area.  The closer you are to the Mall, the nicer the facility and the higher the price.  This Courtyard, and the Residence Inn next door, are located just behind (north) of the Target and just west ofI 45.  It is fairly new, very clean and convenient.  It is close to the freeway, so room placement can be important to avoid noise.  The Residence Inn next door is a bit farther from I 45 and includes breakfast.  There were two down sides to the Courtyard:  a super shallow tub, so even when full, you may not have much water coverage; and it took a very long time for the water to get hot.  I suggest you turn on the shower, do something else, and then come back to get in!  Some of the rooms have balconies, but the parking lot is not particularly picturesque.Despite those comments, if the price was right, I would certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are multiple Marriotts in The Woodlands area.  The closer you are to the Mall, the nicer the facility and the higher the price.  This Courtyard, and the Residence Inn next door, are located just behind (north) of the Target and just west ofI 45.  It is fairly new, very clean and convenient.  It is close to the freeway, so room placement can be important to avoid noise.  The Residence Inn next door is a bit farther from I 45 and includes breakfast.  There were two down sides to the Courtyard:  a super shallow tub, so even when full, you may not have much water coverage; and it took a very long time for the water to get hot.  I suggest you turn on the shower, do something else, and then come back to get in!  Some of the rooms have balconies, but the parking lot is not particularly picturesque.Despite those comments, if the price was right, I would certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r168618652-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>168618652</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Stay on the backside</t>
+  </si>
+  <si>
+    <t>We were there for 3 nights well visiting family. The first night our room faced I 45, and the noise was terrible. They very kindly moved us for the next two nights to the backside of the hotel and it was great! Room comfy, bed good, people at the front desk very helpful and nice. Starbucks brewed coffee available in the lobby, which made my husband happy. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r167642398-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>167642398</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Great convenient place to stay</t>
+  </si>
+  <si>
+    <t>We were here for 2 nights for business and had a very pleasant stay.  It will start with the friendly smiling faces of Lisa and Beth at the front desk.  The others at the front desk were very friendly and helpful as well, just we spent a lot of time in the lobby greeting clients and they were the 2 we dealt with mostly.  Standard Courtyard lobby which is very well kept as well as the rest of the hotel.  The rooms are comfy and clean with a fridge to keep your goods cold.  The conference room worked very well for us too.  They are very close to any kind of delicious restaurant you could want and just a few miles from Market Street.  I look forward to returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We were here for 2 nights for business and had a very pleasant stay.  It will start with the friendly smiling faces of Lisa and Beth at the front desk.  The others at the front desk were very friendly and helpful as well, just we spent a lot of time in the lobby greeting clients and they were the 2 we dealt with mostly.  Standard Courtyard lobby which is very well kept as well as the rest of the hotel.  The rooms are comfy and clean with a fridge to keep your goods cold.  The conference room worked very well for us too.  They are very close to any kind of delicious restaurant you could want and just a few miles from Market Street.  I look forward to returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r164069056-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>164069056</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>I very recently stayed in this hotel for 10 days while on business in the general Houston area. The staff were very hospitable, friendly and attentive. The rooms were comfortable though the air con unit stayed on constantly which made sleeping a problem in the early days.The bistro was limited in choices but again staff were friendly and helpful. I didn't have a car and found this hotel to be in close proximity to the Woodlands Mall along with other nearby shops and restaurants. However, if you ask the hotel staff to order a taxi, make sure they get a Houston Yellow Cab and not the company they appear to use routinely as they charge way more than an acceptable fare.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I very recently stayed in this hotel for 10 days while on business in the general Houston area. The staff were very hospitable, friendly and attentive. The rooms were comfortable though the air con unit stayed on constantly which made sleeping a problem in the early days.The bistro was limited in choices but again staff were friendly and helpful. I didn't have a car and found this hotel to be in close proximity to the Woodlands Mall along with other nearby shops and restaurants. However, if you ask the hotel staff to order a taxi, make sure they get a Houston Yellow Cab and not the company they appear to use routinely as they charge way more than an acceptable fare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r159088814-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>159088814</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I stayed overnight. The staff was friendly and attentive. My room was big and clean and they gave me one on the first floor like I requested. It was by far the most confortable hotel bed I have ever slept in. I am used to them being hard as rocks and this one was the perfect mixture of soft and firm. I would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r158013753-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>158013753</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Friendliest staff! Room was fine and quiet. I would return. Only bad thing is location is off the beaten path a bit if you do not have a car with you, and I did not.  I would return for future trip.  Miss the free breakfast for gold elite members!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r155096445-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>155096445</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, Updated Courtyard</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium...I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium priced place to stay, this Courtyard should fit the bill quite nicely.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium...I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium priced place to stay, this Courtyard should fit the bill quite nicely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r154172869-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>154172869</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Recently updated and modern property</t>
+  </si>
+  <si>
+    <t>This hotel has obviously been recently updated.   The improvements (that I've noticed at some other Courtyards) are particularly well done here.    I worked with a colleague in the lounge area for a number of hours quite comfortably.    Power, refreshments, and comfortable seating were readily at hand.    Internet was fast and dependable.   The room was large and clean.    The staff were helpful and efficient.    There are some OK restaurants walking distance nearby if you want a meal beyond breakfast and the riverfront with some very nice restaurants is about a 5 minute drive away.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r149260177-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>149260177</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights. Staff friendly and helpful. Kids loved the pool. Room was clean and comfortable. Could use another mirror in the room, other than the bathroom mirror. The lobby is great! Comfortable place to have coffee in the morning, read, hang out with family before heading out. Starbucks in the lobby was nice for a quick snack or breakfast. Overall, very nice, would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r139204213-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>139204213</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>WONDERFUL!</t>
+  </si>
+  <si>
+    <t>This is a friendly and very clean hotel.  We have stayed here in the past and tried booking a week ago but no rooms were available.  So I booked a hotel a few streets over but was not impressed with the staff or room.  We decided to go to the Courtyard Marriott to see if anything was available.  They were busy since a concert was in town.  But Sara the front desk clerk was so sweet and asked if I didn't mind waiting she would update their files to find us a room.  Luckily a room was available thanks to Sara and her helpful Manager Ian.  Our stay was Wonderful!  We love The Woodlands and will always stay at the Courtyard Marriott.  Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>This is a friendly and very clean hotel.  We have stayed here in the past and tried booking a week ago but no rooms were available.  So I booked a hotel a few streets over but was not impressed with the staff or room.  We decided to go to the Courtyard Marriott to see if anything was available.  They were busy since a concert was in town.  But Sara the front desk clerk was so sweet and asked if I didn't mind waiting she would update their files to find us a room.  Luckily a room was available thanks to Sara and her helpful Manager Ian.  Our stay was Wonderful!  We love The Woodlands and will always stay at the Courtyard Marriott.  Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r132970227-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>132970227</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Good value for the area quite clean and close to the Mall and good restaurants. Would stay again! Staff is very helpful.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r132761819-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>132761819</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Nice quiet and clean</t>
+  </si>
+  <si>
+    <t>North side of the woodlands mall and a bout 1/2 the price of Marriott waterways where I attended the seminar and provide free parking.  The latter is on the south side of the mall and the restaurants in and around is more expensive and not better. We have 2 queen beds and the linens were immaculate. It was refurbished not long ago and no unpleasant odors felt. there are many 3-4 stars and fast food restaurants within a few miles.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r131621432-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>131621432</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>I Would Probably Stay Here Again</t>
+  </si>
+  <si>
+    <t>I came back from an overnight stay at this hotel.  I had tickets for The Beach Boys concert and I booked a room here so I can get a good night's sleep before heading home.  Check-in and check-out was quick.  The young staff was very friendly and courteous. My room was basic, but it did come with the extra feather pillows that I had requested.  I had a simple pre-concert dinner of a turkey BLT from the bistro, even though I didn't think it was worth the price; nevertheless, I was hungry and didn't want to spend more than I have to at the concert. If there was another concert worth going up there to see, I would probably book a room here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came back from an overnight stay at this hotel.  I had tickets for The Beach Boys concert and I booked a room here so I can get a good night's sleep before heading home.  Check-in and check-out was quick.  The young staff was very friendly and courteous. My room was basic, but it did come with the extra feather pillows that I had requested.  I had a simple pre-concert dinner of a turkey BLT from the bistro, even though I didn't think it was worth the price; nevertheless, I was hungry and didn't want to spend more than I have to at the concert. If there was another concert worth going up there to see, I would probably book a room here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r126501900-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>126501900</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Business Stay</t>
+  </si>
+  <si>
+    <t>This was a very nicely run Courtyard.  The receptionist was on the phone when I checked in, and so I had to wait a few minutes while she attempted to satisfy the caller.  Another employee saw me and came over and checked me in.  When I asked about getting something to eat, she gave me a free entree voucher for their restaurant.  I had a very nice tuna sandwich with fresh cut vegetables and a Starbucks coffee for dinner.  I enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r117907712-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117907712</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>Highly recommend!</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel. I have no complaints. Lovely location in the pines with nearby restaurants and shopping. Easy access and great free parking. The hotel staff were especially nice.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r114710304-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>114710304</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>I reserved a 1 night stay at this hotel.  after checking out at 11:33 AM the next morning and traveling four hours home, I checked my account.  They had charged me for two nights and are trying to tell me I stayed two night and that is what my original reservation was for.  They said management would look into it and call me back.  Did I get a call back, no.  Did I keep calling them, yes.  They are still telling me I stayed two nights even though I can provide them with receipts from lunch, gas, etc in route back to Dallas, TX.  I don't understand why there system is so flaweed, but as a Marriott Reward member, I'm about to drop them all togther.  I travel a lot on business and someone else is about to get my business.My hope is that they come back and appologize for the misunderstanding, but I have a feeling they will keep fighting me on this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I reserved a 1 night stay at this hotel.  after checking out at 11:33 AM the next morning and traveling four hours home, I checked my account.  They had charged me for two nights and are trying to tell me I stayed two night and that is what my original reservation was for.  They said management would look into it and call me back.  Did I get a call back, no.  Did I keep calling them, yes.  They are still telling me I stayed two nights even though I can provide them with receipts from lunch, gas, etc in route back to Dallas, TX.  I don't understand why there system is so flaweed, but as a Marriott Reward member, I'm about to drop them all togther.  I travel a lot on business and someone else is about to get my business.My hope is that they come back and appologize for the misunderstanding, but I have a feeling they will keep fighting me on this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r98085926-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>98085926</t>
+  </si>
+  <si>
+    <t>02/26/2011</t>
+  </si>
+  <si>
+    <t>Could be nice when finished with upgrades, but left a lot to be desired now!</t>
+  </si>
+  <si>
+    <t>We are Marriott Gold Rewards members and stay at a lot of Courtyards.  We chose this one specifically because of it's location for a recent wedding.  We knew there would be construction noise, but often found ourselves greeted by workers coming and going from the elevators.  It was rather scary with our small grand-daughter wanting to "push the buttons" to find her almost run over by emerging workers.We can't say enough about the great customer service!  All of the employees went out of their way to make our stay pleasant, even bringing breakfast to the room, since the dining area was out of commission.  They also provided a nightly complimentary "happy hour" which helped ease the distaste of the renovation.The location is great, with easy access to I-45 and the Woodlands Mall, but I would be sure to ask for a room on the backside of the hotel.  During one sleepless night, we heard freeway traffic, as well as the delivery trucks (I'm assuming) arriving at the Target on the other side of the street.  The back of the hotel backs to the parking lot of the Residence Inn and was much quieter.   All in all, this was an OK Courtyard, but I'd probably look elsewhere for the next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We are Marriott Gold Rewards members and stay at a lot of Courtyards.  We chose this one specifically because of it's location for a recent wedding.  We knew there would be construction noise, but often found ourselves greeted by workers coming and going from the elevators.  It was rather scary with our small grand-daughter wanting to "push the buttons" to find her almost run over by emerging workers.We can't say enough about the great customer service!  All of the employees went out of their way to make our stay pleasant, even bringing breakfast to the room, since the dining area was out of commission.  They also provided a nightly complimentary "happy hour" which helped ease the distaste of the renovation.The location is great, with easy access to I-45 and the Woodlands Mall, but I would be sure to ask for a room on the backside of the hotel.  During one sleepless night, we heard freeway traffic, as well as the delivery trucks (I'm assuming) arriving at the Target on the other side of the street.  The back of the hotel backs to the parking lot of the Residence Inn and was much quieter.   All in all, this was an OK Courtyard, but I'd probably look elsewhere for the next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r84254218-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>84254218</t>
+  </si>
+  <si>
+    <t>10/20/2010</t>
+  </si>
+  <si>
+    <t>Great Location-Looking Forward To Renovations</t>
+  </si>
+  <si>
+    <t>This hotel is close to great dining and shopping in The Woodlands.  Nice easy access to freeway as well.  I have never had a problem with the staff and found everyone to be welcoming.  I am looking forward to the renovations!  Although rooms and lobby area are usually pretty clean, things are a bit dated.  There are a lot of hotel options to choose from in the area and the renovations will help this Courtyard become a top player.  I like this Courtyard because of the location and the price is usually reasonable.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r80890987-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>80890987</t>
+  </si>
+  <si>
+    <t>09/24/2010</t>
+  </si>
+  <si>
+    <t>disappointing stay</t>
+  </si>
+  <si>
+    <t>I am a frequent business traveler and often stay at Courtyards. I was very disappointed in this one.  My room seemed to have a layer of grime in places that are never cleaned (the basics were clean - bed, sink, bath), but the floor was covered in such a thick layer of dirt that my sock bottoms turned black after walking on the carpet. I would not stay here again, until its updated and refurbished.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>TharaldsonCorporate, Owner at Courtyard Houston The Woodlands, responded to this reviewResponded September 28, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2010</t>
+  </si>
+  <si>
+    <t>I am a frequent business traveler and often stay at Courtyards. I was very disappointed in this one.  My room seemed to have a layer of grime in places that are never cleaned (the basics were clean - bed, sink, bath), but the floor was covered in such a thick layer of dirt that my sock bottoms turned black after walking on the carpet. I would not stay here again, until its updated and refurbished.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r25149046-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>25149046</t>
+  </si>
+  <si>
+    <t>02/25/2009</t>
+  </si>
+  <si>
+    <t>Great Location but Will NOT stay again- Not Accommodating at ALL</t>
+  </si>
+  <si>
+    <t>This hotel has a great location and the beds are very nice. But they are NOT about customer service.....  I will NOT stay at this location again !!!!!  The staff are not very welcoming or about friendly customer service..... The problem that I had was a small problem with my reservation that was made online thru Expedia but I was like "OK, thats Ok" .  But when I was told that for the price you paid for this room, we cant even offer you a free breakfast. I guess a $116.65 for the nite isnt enough $$ to be treated with any type of respect. And I even called their customer care line to let them know how very rude and i was not happy with this location, I received the same poor attitude from them.  I would expected more from this hotel than I received. Customer service is NOT a priority for them at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>TharaldsonCorporate, Hotel Management Company at Courtyard Houston The Woodlands, responded to this reviewResponded September 15, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2009</t>
+  </si>
+  <si>
+    <t>This hotel has a great location and the beds are very nice. But they are NOT about customer service.....  I will NOT stay at this location again !!!!!  The staff are not very welcoming or about friendly customer service..... The problem that I had was a small problem with my reservation that was made online thru Expedia but I was like "OK, thats Ok" .  But when I was told that for the price you paid for this room, we cant even offer you a free breakfast. I guess a $116.65 for the nite isnt enough $$ to be treated with any type of respect. And I even called their customer care line to let them know how very rude and i was not happy with this location, I received the same poor attitude from them.  I would expected more from this hotel than I received. Customer service is NOT a priority for them at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r21160034-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>21160034</t>
+  </si>
+  <si>
+    <t>10/23/2008</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel had a nice lobby/sitting area, friendly staff, and a great pool.  It was very conveniently located near The Woodlands Mall and within easy walking distance of Luby's and Target, yet in a very quiet, tree-lined setting.  The internet service was reliable wi-fi.  The staff was very gracious. Breakfast buffet was excellent; very well-maintained and clean, pleasant breakfast area.Two examples of how hotel staff took extra steps to make sure we were happy despite problems:  (1) both times in-room movies were ordered, the picture went grainy a little ways into the film.  The staff was courteous but did not have the ability to address the problem, so they provided free breakfast coupons.  (2) the last day at the hotel our room was not cleaned.  The hotel provided another room as the cleaning staff had left.  A good hotel for business trips to The Woodlands, or for proximity to the beautiful mall and downtown outdoor areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>This hotel had a nice lobby/sitting area, friendly staff, and a great pool.  It was very conveniently located near The Woodlands Mall and within easy walking distance of Luby's and Target, yet in a very quiet, tree-lined setting.  The internet service was reliable wi-fi.  The staff was very gracious. Breakfast buffet was excellent; very well-maintained and clean, pleasant breakfast area.Two examples of how hotel staff took extra steps to make sure we were happy despite problems:  (1) both times in-room movies were ordered, the picture went grainy a little ways into the film.  The staff was courteous but did not have the ability to address the problem, so they provided free breakfast coupons.  (2) the last day at the hotel our room was not cleaned.  The hotel provided another room as the cleaning staff had left.  A good hotel for business trips to The Woodlands, or for proximity to the beautiful mall and downtown outdoor areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r17185857-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>17185857</t>
+  </si>
+  <si>
+    <t>06/24/2008</t>
+  </si>
+  <si>
+    <t>Not as good as most Courtyard Hotels</t>
+  </si>
+  <si>
+    <t>I have come to expect more from Courtyards by Marriott.  This property however does not seem to keep up with the newer ones.  The bathroom fixture was missing, just bare bulbs for the 3 nights I stayed.  Things are looking a little frayed.  My room had a nice balcony but cigarette butts lying about.  Room smelled faintly of smoke.  Only decaf coffee no real stuff 2 of 3 days, though h I did ask.  The property is OK and I would stay again if I needed to be in the area.  Would have liked an outdoor pool in Texas but not a big deal.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r2811373-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>2811373</t>
+  </si>
+  <si>
+    <t>11/06/2004</t>
+  </si>
+  <si>
+    <t>A decling Courtyard property</t>
+  </si>
+  <si>
+    <t>In general Courtyards are reliable places to stay and while nothing bad to report here, this property is beginning to show some wear and tear. Property is located just far enough off the highway to not have significant noise and is next door to a Residence Inn. Walking distance to a Luby's restaurant and the Woodlands Mall is 1 street away. Personnel were friendly. While the issues were not enough to warrant NOT staying here, it's simply not as well maintained as some Courtyards.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2146,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2178,4734 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>189</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>189</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>312</v>
+      </c>
+      <c r="X35" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s">
+        <v>319</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" t="s">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s">
+        <v>328</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>329</v>
+      </c>
+      <c r="X37" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>337</v>
+      </c>
+      <c r="O38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>346</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>353</v>
+      </c>
+      <c r="X40" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>357</v>
+      </c>
+      <c r="J41" t="s">
+        <v>358</v>
+      </c>
+      <c r="K41" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O41" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>395</v>
+      </c>
+      <c r="X46" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>402</v>
+      </c>
+      <c r="O47" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>404</v>
+      </c>
+      <c r="J48" t="s">
+        <v>405</v>
+      </c>
+      <c r="K48" t="s">
+        <v>406</v>
+      </c>
+      <c r="L48" t="s">
+        <v>407</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>402</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" t="s">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>448</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>450</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55" t="s">
+        <v>452</v>
+      </c>
+      <c r="K55" t="s">
+        <v>453</v>
+      </c>
+      <c r="L55" t="s">
+        <v>454</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>455</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>460</v>
+      </c>
+      <c r="L56" t="s">
+        <v>461</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>462</v>
+      </c>
+      <c r="O56" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>463</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J57" t="s">
+        <v>465</v>
+      </c>
+      <c r="K57" t="s">
+        <v>466</v>
+      </c>
+      <c r="L57" t="s">
+        <v>467</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>462</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>189</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J59" t="s">
+        <v>477</v>
+      </c>
+      <c r="K59" t="s">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s">
+        <v>479</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>480</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>482</v>
+      </c>
+      <c r="J60" t="s">
+        <v>483</v>
+      </c>
+      <c r="K60" t="s">
+        <v>484</v>
+      </c>
+      <c r="L60" t="s">
+        <v>485</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>486</v>
+      </c>
+      <c r="O60" t="s">
+        <v>189</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>492</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>501</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>503</v>
+      </c>
+      <c r="L63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>511</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>512</v>
+      </c>
+      <c r="J65" t="s">
+        <v>513</v>
+      </c>
+      <c r="K65" t="s">
+        <v>514</v>
+      </c>
+      <c r="L65" t="s">
+        <v>515</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>516</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>517</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>518</v>
+      </c>
+      <c r="J66" t="s">
+        <v>519</v>
+      </c>
+      <c r="K66" t="s">
+        <v>520</v>
+      </c>
+      <c r="L66" t="s">
+        <v>521</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>522</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
+        <v>527</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>528</v>
+      </c>
+      <c r="O67" t="s">
+        <v>189</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>535</v>
+      </c>
+      <c r="O68" t="s">
+        <v>189</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s">
+        <v>541</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>544</v>
+      </c>
+      <c r="J70" t="s">
+        <v>545</v>
+      </c>
+      <c r="K70" t="s">
+        <v>546</v>
+      </c>
+      <c r="L70" t="s">
+        <v>547</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>548</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>549</v>
+      </c>
+      <c r="X70" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>552</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>553</v>
+      </c>
+      <c r="J71" t="s">
+        <v>554</v>
+      </c>
+      <c r="K71" t="s">
+        <v>555</v>
+      </c>
+      <c r="L71" t="s">
+        <v>556</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>557</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>558</v>
+      </c>
+      <c r="X71" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>562</v>
+      </c>
+      <c r="J72" t="s">
+        <v>563</v>
+      </c>
+      <c r="K72" t="s">
+        <v>564</v>
+      </c>
+      <c r="L72" t="s">
+        <v>565</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>566</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" t="s">
+        <v>572</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>573</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>575</v>
+      </c>
+      <c r="J74" t="s">
+        <v>576</v>
+      </c>
+      <c r="K74" t="s">
+        <v>577</v>
+      </c>
+      <c r="L74" t="s">
+        <v>578</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_157.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_157.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r583637272-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>106245</t>
+  </si>
+  <si>
+    <t>583637272</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and pleasant.  The room was super clean and inviting, warm colors and very spacious.  The bed was very comfortable.  I travel a great deal, both for business and pleasure.  I will make this hotel a must any time I am in the area.  I highly recommend.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r576448934-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>576448934</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Should be much nicer</t>
+  </si>
+  <si>
+    <t>When I arrived to the hotel at 12:45am (with prior notice to hotel that I would be late and my colleague checked that everything would be fine), I was locked out.  That is an excellent safety measure if the phone to get front desk actually got someone to come help.  After waiting ten minutes, the front desk person came and let me in.  He checked me in and then proceeded to tell me my room wasn’t ready yet- are you serious it’s 1am!!! He had to go “clean” the room which was not done correctly at all once I got in 45 minutes later and then found a clogged toilet and had to wait until he came up to fix that.  This hotel is dated and does not live up to Marriott standards at all.  The shower constantly leaked, housekeeping did not do anything but come in and switch out towels, did not make beds or sofa bed and did not restock any lotions/shampoos etc.  With all the hotels nearby I would never recommend staying here.  The only positives were they did a nice brown bag breakfast for ironman athletes and families on race morning.  This was not a good experience overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>When I arrived to the hotel at 12:45am (with prior notice to hotel that I would be late and my colleague checked that everything would be fine), I was locked out.  That is an excellent safety measure if the phone to get front desk actually got someone to come help.  After waiting ten minutes, the front desk person came and let me in.  He checked me in and then proceeded to tell me my room wasn’t ready yet- are you serious it’s 1am!!! He had to go “clean” the room which was not done correctly at all once I got in 45 minutes later and then found a clogged toilet and had to wait until he came up to fix that.  This hotel is dated and does not live up to Marriott standards at all.  The shower constantly leaked, housekeeping did not do anything but come in and switch out towels, did not make beds or sofa bed and did not restock any lotions/shampoos etc.  With all the hotels nearby I would never recommend staying here.  The only positives were they did a nice brown bag breakfast for ironman athletes and families on race morning.  This was not a good experience overall.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r567961506-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
-    <t>56764</t>
-  </si>
-  <si>
-    <t>106245</t>
-  </si>
-  <si>
     <t>567961506</t>
   </si>
   <si>
@@ -177,9 +222,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Rachel F, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded March 31, 2018</t>
   </si>
   <si>
@@ -240,6 +282,63 @@
     <t>From the Tuesday before Thanksgiving through the following Tuesday, my wife and I were visiting our daughter, who lives in The Woodlands area. We had stayed here before back in late 2015/early 2016  [check-in Dec 22 - check-out January 4]. The hotel was a perfect base of operations for doing things in the area. You can walk across the street to a mall with shops and restaurants. The hotel is within a short drive of other conveniences. We had most of our breakfasts at the Bistro restaurant in the hotel. The front desk staff and Bistro staff were friendly and helpful. [We were not traveling with children, but there were families with children staying at the hotel. Based on our observations, the kids loved the pool.]More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r524767731-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>524767731</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Great stay!!!</t>
+  </si>
+  <si>
+    <t>Last minute stay in Houston with a great rate! Shannon at the Front Desk is awesome! Very friendly and check- in was seamless! Shannon gave me info on the hotel and the surrounding area which was very helpful! Shopping mall extremely close. Great stay overall and would definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Last minute stay in Houston with a great rate! Shannon at the Front Desk is awesome! Very friendly and check- in was seamless! Shannon gave me info on the hotel and the surrounding area which was very helpful! Shopping mall extremely close. Great stay overall and would definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r512687649-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>512687649</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Very modern hotel, but the walls are very thin</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the room was clean, and the hotel itself still had that "new modern" feel to it. I would have given it 5 stars, but the hotel fell short in my most important category. Quietness. I could here guests talking clear as day as they walked by my room door. This didn't bother me too much until I was woken up at 7AM by the footsteps of the guests in the room above me. I don't blame the guests for walking around in their room, but I do blame the hotel for the poor building construction. I shouldn't be able to hear other guests when I'm trying to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the room was clean, and the hotel itself still had that "new modern" feel to it. I would have given it 5 stars, but the hotel fell short in my most important category. Quietness. I could here guests talking clear as day as they walked by my room door. This didn't bother me too much until I was woken up at 7AM by the footsteps of the guests in the room above me. I don't blame the guests for walking around in their room, but I do blame the hotel for the poor building construction. I shouldn't be able to hear other guests when I'm trying to sleep.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r511433825-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -255,9 +354,6 @@
     <t>This hotel has been recently updated. The amenities were very nice. The entire place was clean. Our room was very comfortable. Loved the shower and the sleeper sofa. Close to restaurants and shopping. The best part was the front desk agent, Tameka. She was incredibly helpful and sweet! She really made our stay enjoyable. I'd highly recommend to anyone!MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -312,6 +408,51 @@
     <t>At check-in front desk was very nice and helpful. Room was nice and cool when entering. You can see some minor caulking and wall paper issues in the bathroom/shower. Bed and pillows were in great shape. Housekeeping was very friendly.  Hot tub and pool were great experiences. Breakfast was a good way to start the day. No problems with billing and checkout was smooth. Multiple workers asked how things were going and if any help was needed with zero prompting. Always got a have a great day and thank you's. Would not hesitate to stay again. Right off I-45 and easy access to many food and shopping places.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r499786165-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>499786165</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay</t>
+  </si>
+  <si>
+    <t>We stayed here while traveling for a wedding.  Staff was excellent, wine was good (though a bit pricey at the bistro), workout room was nice, but the indoor pool and whirlpool were great. It was relaxing to be here.  Price on the week-end was really good. Definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while traveling for a wedding.  Staff was excellent, wine was good (though a bit pricey at the bistro), workout room was nice, but the indoor pool and whirlpool were great. It was relaxing to be here.  Price on the week-end was really good. Definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r492594852-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>492594852</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Great location for one night stay</t>
+  </si>
+  <si>
+    <t>A very efficient experience here.  I was driving in for a Saturday event and needed a room for one night.  This was perfect!  Close to shopping and restaurants, I didn't have to go far.  The room was comfortable and the staff very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>A very efficient experience here.  I was driving in for a Saturday event and needed a room for one night.  This was perfect!  Close to shopping and restaurants, I didn't have to go far.  The room was comfortable and the staff very friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r492332701-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -330,15 +471,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded June 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 19, 2017</t>
-  </si>
-  <si>
     <t>Nothing unusual here in terms of Courtyard hotels. Nicely hidden in woods off Interstate 45. Rooms were nice, clean. Staff was very good. Very easy in and out. Nice choice if you are Marriott junkie and are in the areaMore</t>
   </si>
   <si>
@@ -381,9 +513,6 @@
     <t>Typical Courtyard...renovated lobby but old style bedrooms. Excellent location right off southbound feeder off I-45. Walking distance to stores and, a bit farther afield, to the Woodlands Mall. It's usually pretty busy so rates can be elevated - I paid $230/night for my last stay but easily cheaper than the Marriott Waterway and parking is free!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 13, 2017</t>
   </si>
   <si>
@@ -393,6 +522,60 @@
     <t>Typical Courtyard...renovated lobby but old style bedrooms. Excellent location right off southbound feeder off I-45. Walking distance to stores and, a bit farther afield, to the Woodlands Mall. It's usually pretty busy so rates can be elevated - I paid $230/night for my last stay but easily cheaper than the Marriott Waterway and parking is free!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r473855707-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>473855707</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>This Marriott is why I will always book a Marriott</t>
+  </si>
+  <si>
+    <t>I've been staying at Marriott hotels for many years and the experience is usually a good one with few complaints if any. This time the experience was the best we have ever had in my 25 years of hotel stays for business or leisure. We made the mistake of reserving the clarion first where we arrived to late to  do anything but sleep in our clothes (that's a separate review), we booked this Marriott for our 2nd night. Walked in at 10am and briefly relayed our clarion experience to Cornelia who happily checked us in early, gave us a room with a balcony, some breakfast vouchers and an extremely pleasant welcome. When we came back that night she even remembered to ask our daughter how she did at her diving meet. I could go on and on but suffice it to say Cornelia is the reason we will now always stay at a Marriott.  This hotel is lucky to have her representing their brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>I've been staying at Marriott hotels for many years and the experience is usually a good one with few complaints if any. This time the experience was the best we have ever had in my 25 years of hotel stays for business or leisure. We made the mistake of reserving the clarion first where we arrived to late to  do anything but sleep in our clothes (that's a separate review), we booked this Marriott for our 2nd night. Walked in at 10am and briefly relayed our clarion experience to Cornelia who happily checked us in early, gave us a room with a balcony, some breakfast vouchers and an extremely pleasant welcome. When we came back that night she even remembered to ask our daughter how she did at her diving meet. I could go on and on but suffice it to say Cornelia is the reason we will now always stay at a Marriott.  This hotel is lucky to have her representing their brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r463866530-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>463866530</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>A Repeated Visitor</t>
+  </si>
+  <si>
+    <t>We have stayed here many times and always find the staff friendly, accommodating and helpful.  The rooms a clean and spacious enough for 1 - 2 week stays without claustrophobia.  The hotel does not off much in the way of dining, however there are numerous choices within a 5 minute walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here many times and always find the staff friendly, accommodating and helpful.  The rooms a clean and spacious enough for 1 - 2 week stays without claustrophobia.  The hotel does not off much in the way of dining, however there are numerous choices within a 5 minute walk.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r456881260-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -474,6 +657,57 @@
     <t>We stayed here for 2 nights for a wedding near by. Staff were very welcoming and friendly. Rooms were comfortable and clean. Everything wonderful but small complaint would be wifi to slow. I had to switch to my global roaming mode as hotel wifi too slow and very weak signallMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r435325703-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>435325703</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good stay </t>
+  </si>
+  <si>
+    <t>Spent 3 nights here, and couldn't be more happy! Very clean, courteous staff, and I did like the bistro! The gym and the pool are small but clean and sufficient. Location is great, right in the woodlands, with mall and other special places nearby. Will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here, and couldn't be more happy! Very clean, courteous staff, and I did like the bistro! The gym and the pool are small but clean and sufficient. Location is great, right in the woodlands, with mall and other special places nearby. Will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r431319982-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>431319982</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Great staff at this location.  However, I did feel as if I needed to educate the gentleman who checked us in.  No mention of Platinum membership and selecting a free market item, as well as being handed the free breakfast 'tickets' for the complementary breakfast that came with our reservation.  No complaints as he was very nice.  I just felt he may have been new.  Carpet was quite worn and the bed really needs to be replaced.  I felt every move my husband made.  Air conditioning was hit or miss in our room, room 330.  We had it turned all the way down and only came on occasionally.  Best part of the stay was lady who worked the cafe'.  She was totally in control and kept her cool when it got extremely busy.  She is awesome!  I wish I got her name, but she was the older of the 2 gals I saw working.  We always stay at Marriotts when we travel, but I may have to go next door to the Residence Inn on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Great staff at this location.  However, I did feel as if I needed to educate the gentleman who checked us in.  No mention of Platinum membership and selecting a free market item, as well as being handed the free breakfast 'tickets' for the complementary breakfast that came with our reservation.  No complaints as he was very nice.  I just felt he may have been new.  Carpet was quite worn and the bed really needs to be replaced.  I felt every move my husband made.  Air conditioning was hit or miss in our room, room 330.  We had it turned all the way down and only came on occasionally.  Best part of the stay was lady who worked the cafe'.  She was totally in control and kept her cool when it got extremely busy.  She is awesome!  I wish I got her name, but she was the older of the 2 gals I saw working.  We always stay at Marriotts when we travel, but I may have to go next door to the Residence Inn on my next visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r428719168-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -489,9 +723,6 @@
     <t>We have had incredible service since we arrived. The food is excellent, literally restaurant quality. Our room wasn't ready upon arrival so we were upgraded to a very nice room without our rate increasing. The manager was very attentive to all guests, literally the minute she walked in before getting a chance to place down her purse she walked right up to each and every guest dining or sitting in the lounge/lobby and asked them how their stay has been. It's rare to find a hotel manager as caring and attentive as she is! This will be the only hotel we ever stay at when we visit the Woodlands!</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r427471787-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -543,6 +774,51 @@
     <t>I loved this place.  A+ customer service, peaceful atmosphere....the only issue I had was noise barrier between floors.  I heard the people above me walking.  Other than that.....the coffee shop...the bistro....the front desk...and housekeeping were superb!  Thank you for making our time there special.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r417517624-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>417517624</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfy</t>
+  </si>
+  <si>
+    <t>Just stopped in for a quick overnight on a business trip... Fast check in &amp; out. Clean, comfy room. Quiet for the most part... Except the early morning trash truck. In room coffee maker &amp; Starbucks coffee in the bistro. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Just stopped in for a quick overnight on a business trip... Fast check in &amp; out. Clean, comfy room. Quiet for the most part... Except the early morning trash truck. In room coffee maker &amp; Starbucks coffee in the bistro. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r402570596-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>402570596</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation Ceremony </t>
+  </si>
+  <si>
+    <t>My family enjoyed our stay at the Courtyard Houston The Woodlands this weekend. We were in town for my youngest daughter's graduation from Sam Houston State University. The university often holds their summer commencement exercises at The Woodlands Church.The staff especially one young lady in particular, Miss Shaylin, your Front Desk Agent. She made us feel at home and made our check in painless. Her vibrant smile and engaging personality really struck me. My daughter was thrilled to learn that Shaylin is also a Sam Houston State University alumna as well. I hope that she and my daughter will keep in touch and participate with the university's alumni functions. Our room was relaxing and cozy especially the queen sized bed and comfy pillows. Loved the large LG television. We were conveniently located next door to Luby's where we had dinner upon arriving. Your breakfast staff was awesome and my croissant egg and ham sandwich was delicious! My family enjoyed lounging around the hot tub after our long drive from San Antonio, shopping at the Target store at The Woodlands Mall. My only regret is that our stay was too short. However we will return in the near future to continue our excursions around The Woodlands and the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>My family enjoyed our stay at the Courtyard Houston The Woodlands this weekend. We were in town for my youngest daughter's graduation from Sam Houston State University. The university often holds their summer commencement exercises at The Woodlands Church.The staff especially one young lady in particular, Miss Shaylin, your Front Desk Agent. She made us feel at home and made our check in painless. Her vibrant smile and engaging personality really struck me. My daughter was thrilled to learn that Shaylin is also a Sam Houston State University alumna as well. I hope that she and my daughter will keep in touch and participate with the university's alumni functions. Our room was relaxing and cozy especially the queen sized bed and comfy pillows. Loved the large LG television. We were conveniently located next door to Luby's where we had dinner upon arriving. Your breakfast staff was awesome and my croissant egg and ham sandwich was delicious! My family enjoyed lounging around the hot tub after our long drive from San Antonio, shopping at the Target store at The Woodlands Mall. My only regret is that our stay was too short. However we will return in the near future to continue our excursions around The Woodlands and the Houston area. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r398116796-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -585,9 +861,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 13, 2016</t>
   </si>
   <si>
@@ -621,6 +894,51 @@
     <t>Rooms were nice and clean. Staff (Idalis)very friendly and helpful. Printed out directions to restaurant.  Made excellent suggestions btw. Attended event at Cynthia Mitchell Woods Pavillion. Shuttle runs by hotel every 15 minutes. $10/pp round-trip. Food pantry located in lobby as well as Bistro/Bar. Shopping/Malls close by. Indoor pool was a plus. Overall great experience!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r365128651-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>365128651</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Perfectly Located</t>
+  </si>
+  <si>
+    <t>I Stayed for 4 nights for a work trip and the staff was very friendly - from the front desk to the housekeepers. Room was clean, beds were comfortable and the location was perfect for me. I had a nice pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I Stayed for 4 nights for a work trip and the staff was very friendly - from the front desk to the housekeepers. Room was clean, beds were comfortable and the location was perfect for me. I had a nice pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r359846394-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>359846394</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Typical hotel perfectly located</t>
+  </si>
+  <si>
+    <t>We stayed here for my son's baseball tournament. When we arrived to check in there wasn't anyone around but once we were spotted at the desk he hustled over and checked us in VERY quickly! Our room was standard - 2 queen beds with a mini fridge. Wished we had a microwave in the room instead of having to go downstairs to heat up food. The beds were pretty firm making them uncomfortable for us, luckily we brought our own pillows allowing us to use theirs to lay on. The indoor pool and hot tub was fabulous for the boys to enjoy and thankfully they were windowed in so us adults could sit on the patio and relax away from the noise and chlorine. The blackout curtains are absolutely fabulous, but can make you late to wherever you need to go :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for my son's baseball tournament. When we arrived to check in there wasn't anyone around but once we were spotted at the desk he hustled over and checked us in VERY quickly! Our room was standard - 2 queen beds with a mini fridge. Wished we had a microwave in the room instead of having to go downstairs to heat up food. The beds were pretty firm making them uncomfortable for us, luckily we brought our own pillows allowing us to use theirs to lay on. The indoor pool and hot tub was fabulous for the boys to enjoy and thankfully they were windowed in so us adults could sit on the patio and relax away from the noise and chlorine. The blackout curtains are absolutely fabulous, but can make you late to wherever you need to go :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r356534037-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -636,9 +954,6 @@
     <t>Stayed here while visiting family, clean room, nicely updated hotel.  Staff was very friendly and tried very hard to provide good service.  Outstanding Wifi, was able to stream recoded TV shows from my home DVR in Illinois to my room in the hotel with no problems.  Enjoyed the pool, not much outdoor space though.  There was a courtyard where the door locked immediately behind you as exited the building, not good.  Lobby eating area / restaurant was OK.  Kind of a loud location near a freeway, but there is a lot to do around the hotel and a lot of good restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Adam M, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 15, 2016</t>
   </si>
   <si>
@@ -678,6 +993,39 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r350818661-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>350818661</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay &amp; Great Staff</t>
+  </si>
+  <si>
+    <t>Awesome location and very welcoming staff! Always willing to help and provide answers to questions as well as suggestions. Located by the mall with lots of great eating spots in the area. The Bistro in the lobby also has good options for food and the ladies there are super nice!!! They start my morning off right</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r348040854-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>348040854</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Awesome Staff &amp; Great Stay!</t>
+  </si>
+  <si>
+    <t>Kristen is the nicest front desk ever!  Super fun facility that is near so much in The Woodlands.  Location is perfect.  Staff is friendly and professional.  My 2 rooms were together as requested.  One of the other front desk people was from Cape Girardeau, MO, can't remember her name.  She did awesome too!  My Austin TX Aunt &amp; Uncle arrived early, and she let them check in early!  Great job!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r340803037-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -717,9 +1065,6 @@
     <t>The hotel is nice but far from the center. They have a bar-restaurant open till 10pm. The service is excellent. I staid there twice in two month and will certainly come back there. Sleep quality is good and rooms are big.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>The hotel is nice but far from the center. They have a bar-restaurant open till 10pm. The service is excellent. I staid there twice in two month and will certainly come back there. Sleep quality is good and rooms are big.More</t>
   </si>
   <si>
@@ -747,24 +1092,63 @@
     <t>I booked 2 adjoining rooms so that my daughter and her 2 friends could celebrate her 13th birthday in your indoor pool, as she has always wanted a pool party and could never have one due to the fact that her birthday is usually always cold being that it's in the winter. Your front desk staff, Tasha and Jason, made her stay extremely special by giving her a card and a bag full of goodies! They really made her day!! We both appreciated the fact that they took the time to arrange something for her and make her feel so special! Way to go, Tasha and Jason!! Thank you so much! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r339139280-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>339139280</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Best Business Trip Every</t>
+  </si>
+  <si>
+    <t>The staff was welcoming and friendly from the time we hit the door. Always concerned about how everything was from the room to the service that was being provided.  The staff made outstanding food recommendations and provided directions to all the restaurants.  Our trip was cut short and it was bitter sweet to leave early because of the incredible atmosphere and service that was created by the incredible staff. Thank you to everyone at the Courtyard in the Woodlands!!! I will stay there again for my next visit to the Houston Area!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was welcoming and friendly from the time we hit the door. Always concerned about how everything was from the room to the service that was being provided.  The staff made outstanding food recommendations and provided directions to all the restaurants.  Our trip was cut short and it was bitter sweet to leave early because of the incredible atmosphere and service that was created by the incredible staff. Thank you to everyone at the Courtyard in the Woodlands!!! I will stay there again for my next visit to the Houston Area!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r317873613-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>317873613</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed at this hotel in the last three months and again the Courtyard Marriott Woodlands is here to please! The front-line staff are very warm and inviting. Courtesy and Smiles seems to be the calling card for this Marriott. Great location, being right next door to Luby's Cafeteria and walking distance to many different stores, the Woodlands mall and great restaurants. The hotel is very clean, great rooms with an exceptional staff. A clean exercise room, indoor pool and nice lobby / lounge with comfortable chairs and couches for viewing big flat screen. It also has a bar and grill with great food! It's definitely my choice when traveling out I-45N.jljMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed at this hotel in the last three months and again the Courtyard Marriott Woodlands is here to please! The front-line staff are very warm and inviting. Courtesy and Smiles seems to be the calling card for this Marriott. Great location, being right next door to Luby's Cafeteria and walking distance to many different stores, the Woodlands mall and great restaurants. The hotel is very clean, great rooms with an exceptional staff. A clean exercise room, indoor pool and nice lobby / lounge with comfortable chairs and couches for viewing big flat screen. It also has a bar and grill with great food! It's definitely my choice when traveling out I-45N.jljMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r317868704-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
     <t>317868704</t>
   </si>
   <si>
-    <t>10/11/2015</t>
-  </si>
-  <si>
     <t>A little hard to find</t>
   </si>
   <si>
     <t>The rooms were clean, comfortable, quiet but a little tight.  The beds were comfortable too. It was in an area accessible to lots of restaurants and shopping. The bartender was very rude to us when she told us that we had missed the last call by three minutes.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded October 12, 2015</t>
   </si>
   <si>
@@ -810,6 +1194,60 @@
     <t>The hotel is as you would expect. Absolutely fine for business, good sized rooms with 2 large double beds. Balconies with many of the rooms. As for EVEN numbered rooms to avoid being disturbed by the I-45 traffic noise.Well located for the Woodlands Malls. 20 minute walk to Market street. The Woodlands is as safe as anywhere to walk.I would absolutely not recommend the hotel restaurant - there are so many to choose from nearby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r306140352-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>306140352</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, but smells a bit moldy?</t>
+  </si>
+  <si>
+    <t>The lobby of the Marriott has been redone and it looks great. There's a Bistro that serves breakfast, Starbucks coffee, snacks, a few entrees, and drinks. The gym has a few treadmills, one elliptical machine, free weight set, some yoga mats, and medicine balls. It's pretty small, but there's a 24 Hour Fitness close by.The rooms are a good size and there's a fridge in them, which is nice. I like the plug on the desk and bedside lamps, and the TV is a good size. The bathrooms can use an upgrade, but there's a tub, which I always appreciate. The amenities are Paul Mitchell, and there's mouthwash and makeup remover.While I'm not crazy about the bedding, it's functional. The duvet is rather thin, and the bed isn't as comfortable as other Marriot hotels, but my biggest concern is the moldy smell in the rooms. I've been in a couple of them, and they all seem to smell that way. It's not in the lobby, so I don't understand where it's coming from.The staff is extremely friendly and very helpful. They warmly welcome you and wish you a nice day as you leave. All in all, it's a good hotel and would be really nice if they could get rid of the funky smell. The location is great since it's near the mall and restaurants, so I'll stay again, but bring some freshener.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>The lobby of the Marriott has been redone and it looks great. There's a Bistro that serves breakfast, Starbucks coffee, snacks, a few entrees, and drinks. The gym has a few treadmills, one elliptical machine, free weight set, some yoga mats, and medicine balls. It's pretty small, but there's a 24 Hour Fitness close by.The rooms are a good size and there's a fridge in them, which is nice. I like the plug on the desk and bedside lamps, and the TV is a good size. The bathrooms can use an upgrade, but there's a tub, which I always appreciate. The amenities are Paul Mitchell, and there's mouthwash and makeup remover.While I'm not crazy about the bedding, it's functional. The duvet is rather thin, and the bed isn't as comfortable as other Marriot hotels, but my biggest concern is the moldy smell in the rooms. I've been in a couple of them, and they all seem to smell that way. It's not in the lobby, so I don't understand where it's coming from.The staff is extremely friendly and very helpful. They warmly welcome you and wish you a nice day as you leave. All in all, it's a good hotel and would be really nice if they could get rid of the funky smell. The location is great since it's near the mall and restaurants, so I'll stay again, but bring some freshener.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r298575782-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>298575782</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Nestled Among the Trees, Unaware of the Hub of Activity Around It!</t>
+  </si>
+  <si>
+    <t>Loved this place.  It was serene and hidden away from all the glitz that is The Woodlands.  The room was super comfortable, especially the beds!   The room was clean and neat.  It made me want to spend the entire time just lounging around in the room.  The ladies who manned the front desk were fantastic, professional and accommodating.  They have a cute little Bistro which had a fabulous breakfast.  You will not go wrong staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Loved this place.  It was serene and hidden away from all the glitz that is The Woodlands.  The room was super comfortable, especially the beds!   The room was clean and neat.  It made me want to spend the entire time just lounging around in the room.  The ladies who manned the front desk were fantastic, professional and accommodating.  They have a cute little Bistro which had a fabulous breakfast.  You will not go wrong staying here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r298012656-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -825,15 +1263,6 @@
     <t>This hotel is very new, the beds, tables and everything in it seem very new or just replaced. The staff is very courteous and they are attentive to give you directions on where to go or where to eat. Staff was very helpful, they have plenty of parking spaces and they held the bags for s for a couple of hours after check out.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 18, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 18, 2015</t>
-  </si>
-  <si>
     <t>This hotel is very new, the beds, tables and everything in it seem very new or just replaced. The staff is very courteous and they are attentive to give you directions on where to go or where to eat. Staff was very helpful, they have plenty of parking spaces and they held the bags for s for a couple of hours after check out.More</t>
   </si>
   <si>
@@ -852,9 +1281,6 @@
     <t>This is a beautiful hotel that is spotless. The staff is very friendly and helpful. It is very new so all of the furnishings are perfect. This will be my new go-to hotel when visiting the Woodlands and ConroeMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 16, 2015</t>
   </si>
   <si>
@@ -888,6 +1314,45 @@
     <t>Initially I had a little problem finding the hotel. However, after locating it, and checking in I was pleasantly surprised. It was very clean and modern. The staff was extremely pleasant and helpful. They have a nice little bistro and lounge which is staffed by competent staff. Overall, a nice stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r286291038-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>286291038</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>A great option in the Woodlands area</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel option in the Woodlands area. As with most hotels, nothing stands out particularly well or poorly about the location. The staff were friendly and accommodating and the rooms were well apportioned. Breakfast was good, but the seating area is limited. Also, be aware that there is another Courtyard Marriott minutes away, so don't get lost on your Google Maps! My only issue with the hotel came when an important package arrived for me, and the front desk worker said that there was nothing there. I asked another worker the next morning, and they quickly found it and apologised for the issue.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r279064040-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>279064040</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't Change A Thing!</t>
+  </si>
+  <si>
+    <t>We stayed at this Courtyard hotel for a wedding in the area. We had originally booked a suite, but when it wasn't available (for repair reasons), they put us in a slightly smaller room that still met all of our needs, lowered our nighly rate, and included breakfast vouchers. Check-in was fast and easy, thanks to their new app and the wonderful young women, Angel (yes, that's actually her name), at the front desk. We really loved how the hotel is almost surrounded by trees. We didn't even notice the highway (views or noise) nearby. Our room was very clean, cool (on a 90+ degree day) and so comfortable. Fluffy king bed, large flat screen TV with cable, alarm clock, desk, loveseat, balcony, shower with toiletries and plenty of hot water, small refrigerator, free wi-fi (that worked well), black-out curtains, small coffee pot, hair dryer, iron, etc. The lobby is cozy, and all of the employees were so nice, even the young lady at the cafe who remembered our drink orders! The food (breakfast and evening happy hour/dinner) was even better than I expected from a small hotel cafe. We didn't use the pool or gym, but they looked well kept and clean. To say we were "wow'ed" is an understatement, especially for the price. Thank you for a wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this Courtyard hotel for a wedding in the area. We had originally booked a suite, but when it wasn't available (for repair reasons), they put us in a slightly smaller room that still met all of our needs, lowered our nighly rate, and included breakfast vouchers. Check-in was fast and easy, thanks to their new app and the wonderful young women, Angel (yes, that's actually her name), at the front desk. We really loved how the hotel is almost surrounded by trees. We didn't even notice the highway (views or noise) nearby. Our room was very clean, cool (on a 90+ degree day) and so comfortable. Fluffy king bed, large flat screen TV with cable, alarm clock, desk, loveseat, balcony, shower with toiletries and plenty of hot water, small refrigerator, free wi-fi (that worked well), black-out curtains, small coffee pot, hair dryer, iron, etc. The lobby is cozy, and all of the employees were so nice, even the young lady at the cafe who remembered our drink orders! The food (breakfast and evening happy hour/dinner) was even better than I expected from a small hotel cafe. We didn't use the pool or gym, but they looked well kept and clean. To say we were "wow'ed" is an understatement, especially for the price. Thank you for a wonderful stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r278260739-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -903,9 +1368,6 @@
     <t>Friendly, helpful staff! Clean and tidy. We picked it for proximity to the race. We got breakfast with the room option and it was  a very good hot meal. Went out of their way to find me a local newspaper. The King w/sofa bed is tight when opened; no walking room.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r278192938-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1398,57 @@
     <t>Pretty typical Marriott Courtyard.  Comfortable bed, quite room, furnishings in pretty good condition and and the bathroom was clean.  The location is close to the mall, so shopping and lots of restaurants are close by.  It has quick and easy access to I-45.  Service was pretty good.  No reason to not stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r265209212-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>265209212</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Good hotel and good night's sleep</t>
+  </si>
+  <si>
+    <t>This is a typical Courtyard, efficient and clean, with a friendly staff.  The location is close to shopping at the Woodlands mall.  It is close to the interstate 45, for easy access to area businesses.  I had to leave early, so I didn't get a chance to sample the breakfast, so I can't comment on quality of that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2015</t>
+  </si>
+  <si>
+    <t>This is a typical Courtyard, efficient and clean, with a friendly staff.  The location is close to shopping at the Woodlands mall.  It is close to the interstate 45, for easy access to area businesses.  I had to leave early, so I didn't get a chance to sample the breakfast, so I can't comment on quality of that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r262151784-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>262151784</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Good example of a Courtyard by Marriott with a great staff</t>
+  </si>
+  <si>
+    <t>I often go to the Woodlands for work and try to stay at the Courtyard due to location as well as Marriott Rewards membership.  This is a good example of a Courtyard as it has the familiar look and feel of other recently remodeled Marriott Courtyards.  There is an indoor pool and hot tub.  The trademark courtyard is probably its weakest point.  It's in a small outdoor area with the Residence Inn directly behind it so the view is marginal at best, but the furniture was comfy and sitting outside on a cloudless night in 70 degree temps is great...so not going to complain when it was 25 degrees back home.Bedding and amenities in the room were classic Courtyard.  Very comfortable bed, great pillows, sheets and comforter.  Nice LG TV with good channel selection and no annoying hotel menu...turn the TV on and it goes right into the channel lineup.  The young lady working the food/coffee/drinks area had a fantastic sense of humor and was very helpful and cheerful.  In fact, the entire staff had big smiles on their faces and were very welcoming and great to work with.  It's not the cheapest hotel in the area, but it's not the most expensive.  I would say that it is priced appropriately based on where it sits in the lineup of hotels in the area.  It'll be my go-to hotel in The Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>I often go to the Woodlands for work and try to stay at the Courtyard due to location as well as Marriott Rewards membership.  This is a good example of a Courtyard as it has the familiar look and feel of other recently remodeled Marriott Courtyards.  There is an indoor pool and hot tub.  The trademark courtyard is probably its weakest point.  It's in a small outdoor area with the Residence Inn directly behind it so the view is marginal at best, but the furniture was comfy and sitting outside on a cloudless night in 70 degree temps is great...so not going to complain when it was 25 degrees back home.Bedding and amenities in the room were classic Courtyard.  Very comfortable bed, great pillows, sheets and comforter.  Nice LG TV with good channel selection and no annoying hotel menu...turn the TV on and it goes right into the channel lineup.  The young lady working the food/coffee/drinks area had a fantastic sense of humor and was very helpful and cheerful.  In fact, the entire staff had big smiles on their faces and were very welcoming and great to work with.  It's not the cheapest hotel in the area, but it's not the most expensive.  I would say that it is priced appropriately based on where it sits in the lineup of hotels in the area.  It'll be my go-to hotel in The Woodlands.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r261217071-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -951,15 +1464,6 @@
     <t>I stayed for business two nights in March, 2015, it was my first time to this part of Houston and the hotel was an older property but had been kept up nicely. The area surrounding the hotel was very nice with plenty of dining and shopping within a 3 minute drive or a 10 minute or so walk. The Woodlands mall was only a short distance away from the hotel and as well as many businesses, etc... The hotel breakfast was "OK" with not a lot of choices and an order only setup, no continental breakfast option available. It was about 15 minutes from IAH without traffic and took around around 35 minutes the evening of my arrival so not a bad location for the North side of Houston and the Woodlands.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded April 1, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 1, 2015</t>
-  </si>
-  <si>
     <t>I stayed for business two nights in March, 2015, it was my first time to this part of Houston and the hotel was an older property but had been kept up nicely. The area surrounding the hotel was very nice with plenty of dining and shopping within a 3 minute drive or a 10 minute or so walk. The Woodlands mall was only a short distance away from the hotel and as well as many businesses, etc... The hotel breakfast was "OK" with not a lot of choices and an order only setup, no continental breakfast option available. It was about 15 minutes from IAH without traffic and took around around 35 minutes the evening of my arrival so not a bad location for the North side of Houston and the Woodlands.More</t>
   </si>
   <si>
@@ -1014,6 +1518,57 @@
     <t>This hotel is in a great location. Its just far enough off the freeway that you don't hear the street noise. Blow dryer, fridge, ironing board, coffee maker, free wifi, comfortable bed. Great personalities at the front desk. It was a home run.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r254769321-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>254769321</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stayed at this Courtyard on a business trip to the Woodlands. Great location. Easy access the restaurants, shopping, and interstate. It is not the easiest place to find. It has been renovated as all other courtyards. Bristo is a little expensive for breakfast items. Staff was very helpfully and friendly. Room was clean. Would stay again for business trip. Not sure I would stay on a family trip if I had children with me. The space appears somewhat small for a family with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this Courtyard on a business trip to the Woodlands. Great location. Easy access the restaurants, shopping, and interstate. It is not the easiest place to find. It has been renovated as all other courtyards. Bristo is a little expensive for breakfast items. Staff was very helpfully and friendly. Room was clean. Would stay again for business trip. Not sure I would stay on a family trip if I had children with me. The space appears somewhat small for a family with children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r253188607-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>253188607</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Better then ever</t>
+  </si>
+  <si>
+    <t>This has to be one the best hotels I have stayed in in a long time. My family and I had a family emergency in the Woodlands. We didn't have any reservations so we walked in. Angel greeted us and was able to get us a room. She is one the the best employees in a hotel that I have seen for a while. The rooms were clean and comfortable. I will return and recommend this to anyone who is traveling to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>This has to be one the best hotels I have stayed in in a long time. My family and I had a family emergency in the Woodlands. We didn't have any reservations so we walked in. Angel greeted us and was able to get us a room. She is one the the best employees in a hotel that I have seen for a while. The rooms were clean and comfortable. I will return and recommend this to anyone who is traveling to this area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r243839452-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1029,9 +1584,6 @@
     <t>Stayed for a weekend visit for the first time in The Woodlands.  The front counter employees were very friendly and helpful upon check-in.  Got up to my room to discover it had a balcony with two chairs and a table.  First non-luxury hotel/resort I've stayed in that had an outdoor balcony.  There's not really an incredible view, but we def took advantage of sitting outside a couple times and enjoying the fresh air.  Within a short time of getting situated I got a call from the front desk asking if everything in my room was ok.  Another first for me.  The room was spacious as it had a loveseat, table, and a desk that expanded if you needed more room as a section of the desk rolled out to reveal more space.  Overall, had a great stay there.  From what I saw, they had a bistro, a workout room, and an indoor pool although we didn't take advantage of any of those.  If you are looking for a place to stay in the Woodlands/Conroe/Spring area, I would highly recommend staying here.  It was extremely close to the mall, a movie theater, a Target, a grocery store, a variety of other popular retail stores, and a nice selection of restaurants (both fast food and sit down.)MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded December 29, 2014</t>
   </si>
   <si>
@@ -1086,6 +1638,51 @@
     <t>It was my wedding weekend, and this hotel was booked for me and my bridesmaids. My mother called a day in advance to see what time was check in. We were told 11. We arrive at 2:45, and the woman at the counter is RUDE. first, she tells me out king suite isn't ready. Then she says we're too early. All the while constantly giving me attititude. My bridesmaids and I had to wait in the lobby for 35 minutes to get out room. No beverages or anything was offered. There was no hospitality whatsoever. I asked the woman at the front if my room could be cleaned when we left the next morning because my husband and I would come back after our wedding that night to start our honeymoon. I was assured it would be taken care of. The next morning when we left, I asked the same thing and was once again assured it would be taken care of. When my husband and I came back that night, the hotel room was a mess. Nothing had been cleaned. So my husband and I got to clean up the hotel room on our honeymoon. Fun right? Thanks for the crappy hospitality! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r240268507-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>240268507</t>
+  </si>
+  <si>
+    <t>Nice Place to Rest</t>
+  </si>
+  <si>
+    <t>There were three of us traveling for business.  The rooms were spacious, and looked recently remodeled.  The lobby is the "new" Courtyard bistro style with the classic Courtyard design.  The food in the morning was good - just wish it was a tad more affordable since they have a captive customer base.  There was only moderate road noise in my room, so I slept okay.  The room was clean, the bed was comfortable, and the manager was exceptional.  I could tell she really worked hard and cared about her guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>There were three of us traveling for business.  The rooms were spacious, and looked recently remodeled.  The lobby is the "new" Courtyard bistro style with the classic Courtyard design.  The food in the morning was good - just wish it was a tad more affordable since they have a captive customer base.  There was only moderate road noise in my room, so I slept okay.  The room was clean, the bed was comfortable, and the manager was exceptional.  I could tell she really worked hard and cared about her guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r235640782-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>235640782</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Better than I thought</t>
+  </si>
+  <si>
+    <t>Stayed here for a conference, back facing room very quiet and good ... For the price. Staff friendly and helpful ... Fast food style place ... Food ok but don't expect too much ........ Room clean ... Can walk to mall although no footpathsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a conference, back facing room very quiet and good ... For the price. Staff friendly and helpful ... Fast food style place ... Food ok but don't expect too much ........ Room clean ... Can walk to mall although no footpathsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r230963949-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1740,54 @@
     <t>Great location in relation to the pavilion.Very clean, fresh hotel. Lobby had a nice market for snacks and medications as well as a "restaurant" that served small meals, alcoholic beverages and a limited Starbucks menu. Rooms were a good size and seemed to have been updated fairly recently.Parking lot was well lit and felt secure.Staff was extremely helpful and knowledgeable. Might help to have additional training on fire alarms though. Someone pulled the alarm at 2 a.m. and the poor guy working didn't have a clue how to shut it off. Fortunately one of the guests worked at another Courtyard and was able to decipher the codes and shut the thing off after what felt like an eternity.  Ecoserve taxi service (golf cart) runs before and after most concerts and is a great deal at $5. I will definitely choose this hotel for my next Woodlands outing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r222514066-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>222514066</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>It was awesome...</t>
+  </si>
+  <si>
+    <t>We went out there for a concert, and it was easy to find restaurants and hang out places with the local map they provided. I loved the little cafe they had, the indoor pool and spa was perfect. The workers were so friendly. I will definitely book my spot with them again in the future. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>We went out there for a concert, and it was easy to find restaurants and hang out places with the local map they provided. I loved the little cafe they had, the indoor pool and spa was perfect. The workers were so friendly. I will definitely book my spot with them again in the future. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r216277221-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>216277221</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>No frills, but Marriott essentials</t>
+  </si>
+  <si>
+    <t>We just needed a spot to land our heads for the night while visiting relatives nearby.  It was important to pick a spot with an indoor pool as the kids wanted to swim, and we wanted to avoid the heat, humidity, and mosquitoes.  We would have naturally picked the Residence Inn , which happens to a stone's throw next door, but wanted a lower price point since we were spending such a short time in the room. Compared to the RI, there's no complimentary breakfast, kitchenette, or spacious bathroom.  However, for our needs this go-around, there was a market,cafe, vending convenient on each floor, and a refrigerator which is always important to us. The pool was heated and well kept.  Our stay was comfortable.  Our only complaint was that the bathroom floors were not clean by our standards.  We called for housekeeping to wipe up residue and stains from around the toilet. Otherwise, the front desk staff was friendly enough and all else was essentially the good you expect from Marriott.p.s. The location left nothing to be desired. It is an awesome location if you came to shop and be near a plethora of dining and entertainment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We just needed a spot to land our heads for the night while visiting relatives nearby.  It was important to pick a spot with an indoor pool as the kids wanted to swim, and we wanted to avoid the heat, humidity, and mosquitoes.  We would have naturally picked the Residence Inn , which happens to a stone's throw next door, but wanted a lower price point since we were spending such a short time in the room. Compared to the RI, there's no complimentary breakfast, kitchenette, or spacious bathroom.  However, for our needs this go-around, there was a market,cafe, vending convenient on each floor, and a refrigerator which is always important to us. The pool was heated and well kept.  Our stay was comfortable.  Our only complaint was that the bathroom floors were not clean by our standards.  We called for housekeeping to wipe up residue and stains from around the toilet. Otherwise, the front desk staff was friendly enough and all else was essentially the good you expect from Marriott.p.s. The location left nothing to be desired. It is an awesome location if you came to shop and be near a plethora of dining and entertainment.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r210935066-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1857,57 @@
     <t>Super clean, fantastic staff who always greet you. The beds are fantastic and rooms are very clean. A little hard to find behind the trees but worth the search. Wish they would tell you the food prices at the bistro so we just ate at the surrounding area restaurants. Right in the middle of all the great shopping and food area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r206743542-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>206743542</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Comfortable sleep</t>
+  </si>
+  <si>
+    <t>Almost slept through a thunderstorm, the rooms are so quiet. Well-kept property. Enjoyed the cafe in the lobby for dinner (though a tad expensive). Need a car to get to other restaurants. Nearby to the Town Centre and shopping in The Woodlands. Fitness Center was a bit sparse, but adequate to get in a workout.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Almost slept through a thunderstorm, the rooms are so quiet. Well-kept property. Enjoyed the cafe in the lobby for dinner (though a tad expensive). Need a car to get to other restaurants. Nearby to the Town Centre and shopping in The Woodlands. Fitness Center was a bit sparse, but adequate to get in a workout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r190746707-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>190746707</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent Property</t>
+  </si>
+  <si>
+    <t>Stayed here last week for business from Sunday to Friday. - Stayed on the third floor close to the elevator and ice machine but did not hear them at all. - Clean and nicely decorated room. The rooms in this hotel have been upgraded based on the Bistro style of the lobby. - TV worked great, no issues. Bathroom was cleaned nicely every day. - Very friendly staff. They accomodated a late checkout for me of 2pm.  - Ate breakfast there a couple days. Breakfast tacos were outstanding. - Used the treadmills in the exercise room. No issues with them specifically. It would have been nice if they had closed captions on the treadmill tvs. There were headphones to plug in to the tv but I don't like running with the wires bouncing around. Really cannot think of anything constructive to say about my experience. Will definitely stay here again next time I am in town on business or for personal travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here last week for business from Sunday to Friday. - Stayed on the third floor close to the elevator and ice machine but did not hear them at all. - Clean and nicely decorated room. The rooms in this hotel have been upgraded based on the Bistro style of the lobby. - TV worked great, no issues. Bathroom was cleaned nicely every day. - Very friendly staff. They accomodated a late checkout for me of 2pm.  - Ate breakfast there a couple days. Breakfast tacos were outstanding. - Used the treadmills in the exercise room. No issues with them specifically. It would have been nice if they had closed captions on the treadmill tvs. There were headphones to plug in to the tv but I don't like running with the wires bouncing around. Really cannot think of anything constructive to say about my experience. Will definitely stay here again next time I am in town on business or for personal travel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r188890573-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1965,42 @@
     <t>The check in was great! The room was clean...except the big black curly hair in the restroom...gross. The bed was "just ok" nothing to rave about. What really ticked me off was the crappy pillows. For $200 a night ( including tax) the pillows should be not be lumpy! You could see the lumps before you touched them. There are 5 pillow on each bed. All 10 exactly the same. Wouldn't it be smart to have at least 2 firm pillows in the mix, 2 medium and 2 soft, with 4 cheap fillers? That way, every guest could find a pillow they liked? I couldn't get comfy and woke up with a sore neck and upper back. Sorry, Marriot, going cheap on the pillows is no way to earn a loyal guest. Oh, thanks for the exfoliation treatment with your small, rough towels. Good grief! They are too small to wrap around your body, we aren't big people. Breakfast was quick, and had a gluten free option, yeah. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r185899119-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>185899119</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Near Perfect</t>
+  </si>
+  <si>
+    <t>My wife and I go to the Renaissance Festival every year.  Great rates, just renovated, clean, very nice staff morning and night.  Very close to several restaurants and the Woodlands Mall. The only insignificant complaint is that there wasn't microwave in the room.  There is a small refrigerator.  Rooms are a little on the small side, but well furnished and comfortable bed.  My room had a balcony.  We will be back again next year for another stay.  It was the best price of all that I checked out in the area at the time I booked the reservation.  I am sure that varies from season to season and events near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>My wife and I go to the Renaissance Festival every year.  Great rates, just renovated, clean, very nice staff morning and night.  Very close to several restaurants and the Woodlands Mall. The only insignificant complaint is that there wasn't microwave in the room.  There is a small refrigerator.  Rooms are a little on the small side, but well furnished and comfortable bed.  My room had a balcony.  We will be back again next year for another stay.  It was the best price of all that I checked out in the area at the time I booked the reservation.  I am sure that varies from season to season and events near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r182640912-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>182640912</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Clean, accommodating staff, excellent little bistro, great place to stay!</t>
+  </si>
+  <si>
+    <t>This hotel was clean, quiet and pleasant.  I was impressed by the small but extremely efficient and tasty bistro that serves breakfast and dinner and has a nice bar area.  Housekeeping was very accommodating as well. Very nice pool and exercise area. I will definitely stay here again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r181189213-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +2064,48 @@
     <t>There are multiple Marriotts in The Woodlands area.  The closer you are to the Mall, the nicer the facility and the higher the price.  This Courtyard, and the Residence Inn next door, are located just behind (north) of the Target and just west ofI 45.  It is fairly new, very clean and convenient.  It is close to the freeway, so room placement can be important to avoid noise.  The Residence Inn next door is a bit farther from I 45 and includes breakfast.  There were two down sides to the Courtyard:  a super shallow tub, so even when full, you may not have much water coverage; and it took a very long time for the water to get hot.  I suggest you turn on the shower, do something else, and then come back to get in!  Some of the rooms have balconies, but the parking lot is not particularly picturesque.Despite those comments, if the price was right, I would certainly stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r174205816-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>174205816</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Great business hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice rooms, great lobby decor and bar is open late for drinks. Breakfast is made to order and anything you would want. I had the French toast . Bedding was new and very comfortable . This hotel is close to the mall and great restaurants . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r173787008-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>173787008</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>No Laundry service on Weekends</t>
+  </si>
+  <si>
+    <t>Not what I expected, the staff seem eager to please, however, I was not pleased when I was told no laundry at the weekends (the is nothing written on the laundry documentation to that effect). bistro menu was limited, but overall hotel is in a reasonable condition, although I found and drowned a cockroach in my room. I won't be staying here next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Not what I expected, the staff seem eager to please, however, I was not pleased when I was told no laundry at the weekends (the is nothing written on the laundry documentation to that effect). bistro menu was limited, but overall hotel is in a reasonable condition, although I found and drowned a cockroach in my room. I won't be staying here next time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r168618652-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +2163,39 @@
     <t>I very recently stayed in this hotel for 10 days while on business in the general Houston area. The staff were very hospitable, friendly and attentive. The rooms were comfortable though the air con unit stayed on constantly which made sleeping a problem in the early days.The bistro was limited in choices but again staff were friendly and helpful. I didn't have a car and found this hotel to be in close proximity to the Woodlands Mall along with other nearby shops and restaurants. However, if you ask the hotel staff to order a taxi, make sure they get a Houston Yellow Cab and not the company they appear to use routinely as they charge way more than an acceptable fare.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r162710522-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>162710522</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. The lobby was gorgeous. The rooms were very very clean. The one improvement could be better pillows but they weren't too bad. No free breakfast which was a bummer but they did serve Starbucks! I would definitely return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r161302850-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>161302850</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Second stay, Updated and Fresh</t>
+  </si>
+  <si>
+    <t>My second stay at this hotel (previously 2009) for a concert at CWM Pavilion.  It was okay before but updates in the lobby and guestrooms made it much better.  We had a first floor with a king, comfortable bedding, frig, sofa, sliding glass door.  Box style A/C clicked on and off, a little distracting; the toilet in our room had a weak flush (advised front desk); no safe in the room; minor issues that were not deal breakers.  At check in, the front desk agent asked if we needed directions or parking information to the concert; and made a recommendation for dinner at "Grotto" (weekday Happy Hour menu 5-7) with valet parking ($15 event parking), have dinner and walk to the pavilion.  Excellent!  Hotel parking was well lit and plentiful when we returned at 1130pm.  We did not use the indoor pool or gym, nor did we eat at the bistro.  I have also stayed at the Residence Inn next door several times and always shop for price when attending a concert (usually once a year).  There are closer hotels to the venue, but this is a good, clean, safe option and we will continue to consider it for location and value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My second stay at this hotel (previously 2009) for a concert at CWM Pavilion.  It was okay before but updates in the lobby and guestrooms made it much better.  We had a first floor with a king, comfortable bedding, frig, sofa, sliding glass door.  Box style A/C clicked on and off, a little distracting; the toilet in our room had a weak flush (advised front desk); no safe in the room; minor issues that were not deal breakers.  At check in, the front desk agent asked if we needed directions or parking information to the concert; and made a recommendation for dinner at "Grotto" (weekday Happy Hour menu 5-7) with valet parking ($15 event parking), have dinner and walk to the pavilion.  Excellent!  Hotel parking was well lit and plentiful when we returned at 1130pm.  We did not use the indoor pool or gym, nor did we eat at the bistro.  I have also stayed at the Residence Inn next door several times and always shop for price when attending a concert (usually once a year).  There are closer hotels to the venue, but this is a good, clean, safe option and we will continue to consider it for location and value.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r159088814-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +2250,48 @@
     <t>I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium...I stayed here for two nights over the past weekend while visiting family.  We chose this hotel because we found a good rate on the Marriott website and it was located conveniently close to those we were visiting.  This hotel has been updated and was a comfortable retreat at the end of the day.  We did find our room (standard king) to be a bit small; we had a chair and desk but not the sofa mentioned by previous reviewers.  We agree with previous reviewers that a mirror elsewhere in the room would have made dressing easier, as the sink and closet area was tight for two people.  Other family members enjoyed the pool as well as the fitness area.  Free coffee was available both in room and in the lobby during breakfast hours.  The lobby has water infused with lemons and limes during the rest of the day.  The lobby also contains a small bistro that sells Starbucks coffees and breakfast items until ten in the morning, which we enjoyed.  It also serves as a bar/bistro later in the day but we did not make use of that.  We chose a room on the third floor, away from the elevator, and found it to be very quiet.  We used the lobby computer to print out some information we needed (a very convenient perk).  Overall, staff was very helpful.  if you are in this area and looking for a medium priced place to stay, this Courtyard should fit the bill quite nicely.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r154885408-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>154885408</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for an even better price</t>
+  </si>
+  <si>
+    <t>We stayed at Courtyard Houston The Woodlands on March 16th after booking through Booking.com. Overall I have to say I love the updates that Marriott has done in the Courtyard line and this hotel is no exception. The friendly staff checked us in while quickly explaining the location of the fitness center, bistro, pool etc. I love the touch of lemon and cucumber infused water you can get at anytime. Our room was cool, clean and comfortable. I also like that there are computers with a printer right in the lobby as i was able to print out directions i had neglected to do at home. We had a king bed room which had a small sofa and coffee table - a nice touch that similar hotels do not have. We enjoyed a couple of drinks and a snack later that night at the Bistro downstairs. Our server, Angel, was lovely and we had a great conversation as she told us about some shops to visit while we were there. Woke up the next morning a little stiff - the pillows are quite large and firm.  Not a big deal at all, but next time I'll ask if they have some flatter or softer ones. Went back down to the Bistro for breakfast which was delicious. I'd recommend this hotel to anyone and would absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at Courtyard Houston The Woodlands on March 16th after booking through Booking.com. Overall I have to say I love the updates that Marriott has done in the Courtyard line and this hotel is no exception. The friendly staff checked us in while quickly explaining the location of the fitness center, bistro, pool etc. I love the touch of lemon and cucumber infused water you can get at anytime. Our room was cool, clean and comfortable. I also like that there are computers with a printer right in the lobby as i was able to print out directions i had neglected to do at home. We had a king bed room which had a small sofa and coffee table - a nice touch that similar hotels do not have. We enjoyed a couple of drinks and a snack later that night at the Bistro downstairs. Our server, Angel, was lovely and we had a great conversation as she told us about some shops to visit while we were there. Woke up the next morning a little stiff - the pillows are quite large and firm.  Not a big deal at all, but next time I'll ask if they have some flatter or softer ones. Went back down to the Bistro for breakfast which was delicious. I'd recommend this hotel to anyone and would absolutely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r154397502-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>154397502</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Nothing Special</t>
+  </si>
+  <si>
+    <t>The Courtyard is a nicely-kept, modern hotel that is no better nor worse than most of the other Courtyards out there.  If you like the Courtyard brand, you will like this hotel.  My problem is that it is just what I expected, nothing more, nothing less, which is why I rated it as a "3".  It is also a bit pricey, although probably in the middle of typical rates for hotels in the vicinity.  If you have business in The Woodlands, consider staying at this hotel, but don't go out of your way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steven T, Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2013</t>
+  </si>
+  <si>
+    <t>The Courtyard is a nicely-kept, modern hotel that is no better nor worse than most of the other Courtyards out there.  If you like the Courtyard brand, you will like this hotel.  My problem is that it is just what I expected, nothing more, nothing less, which is why I rated it as a "3".  It is also a bit pricey, although probably in the middle of typical rates for hotels in the vicinity.  If you have business in The Woodlands, consider staying at this hotel, but don't go out of your way.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r154172869-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +2349,51 @@
     <t>This is a friendly and very clean hotel.  We have stayed here in the past and tried booking a week ago but no rooms were available.  So I booked a hotel a few streets over but was not impressed with the staff or room.  We decided to go to the Courtyard Marriott to see if anything was available.  They were busy since a concert was in town.  But Sara the front desk clerk was so sweet and asked if I didn't mind waiting she would update their files to find us a room.  Luckily a room was available thanks to Sara and her helpful Manager Ian.  Our stay was Wonderful!  We love The Woodlands and will always stay at the Courtyard Marriott.  Thanks!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r137193697-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>137193697</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Ok, but could be better</t>
+  </si>
+  <si>
+    <t>This is a nice clean facility but some things that would make it appeal to more than just the business class...put some mirrors in the room in another place other than the bathroom so more than one person can get ready at a time. More plugs too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>WoodlandsCYD_GM, General Manager at Courtyard Houston The Woodlands, responded to this reviewResponded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2012</t>
+  </si>
+  <si>
+    <t>This is a nice clean facility but some things that would make it appeal to more than just the business class...put some mirrors in the room in another place other than the bathroom so more than one person can get ready at a time. More plugs too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r134744474-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>134744474</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Comfortable for business trip</t>
+  </si>
+  <si>
+    <t>Clean, quiet and decent location off the main roadway.Was difficult finding on GPS in rental from international airport, but eventually did so after a few tries.Room was okay and comfortable bed (also sofa if you decide to work late).  Stayed on the ground floor, so occasional lights at night from parking cars (solved this the next night by parking myself in front of my room window).Staff were friendly and efficient, but the bar/coffee attendents seemed distracted.  Not rude, but took a while to get their attention.Worth staying there if you have to visit the Woodlands for a short business trip.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r132970227-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +2445,51 @@
     <t>I came back from an overnight stay at this hotel.  I had tickets for The Beach Boys concert and I booked a room here so I can get a good night's sleep before heading home.  Check-in and check-out was quick.  The young staff was very friendly and courteous. My room was basic, but it did come with the extra feather pillows that I had requested.  I had a simple pre-concert dinner of a turkey BLT from the bistro, even though I didn't think it was worth the price; nevertheless, I was hungry and didn't want to spend more than I have to at the concert. If there was another concert worth going up there to see, I would probably book a room here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r128446039-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>128446039</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Would not mind staying again</t>
+  </si>
+  <si>
+    <t>I was booked to stay at the TownePlace Suites but they over-booked and moved me to the Courtyard. When I got there the elevator was out and I had to take the stairs. While this was not ideal, the hotel is nice and clean. My room was really nice. Also, the staff is very responsive and willing to accommodate. I was actually given bonus Marriott points for my inconvenience. I did get an awful latte from the Starbucks in the lobby but they were swamped. So, while my experience there wasn't the best, I would stay there again because I don't think that my experience was typical of the hotel. I mean, i doubt that their elevator is out ALL of the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>WoodlandsCYD_GM, General Manager at Courtyard Houston The Woodlands, responded to this reviewResponded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2012</t>
+  </si>
+  <si>
+    <t>I was booked to stay at the TownePlace Suites but they over-booked and moved me to the Courtyard. When I got there the elevator was out and I had to take the stairs. While this was not ideal, the hotel is nice and clean. My room was really nice. Also, the staff is very responsive and willing to accommodate. I was actually given bonus Marriott points for my inconvenience. I did get an awful latte from the Starbucks in the lobby but they were swamped. So, while my experience there wasn't the best, I would stay there again because I don't think that my experience was typical of the hotel. I mean, i doubt that their elevator is out ALL of the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r127560631-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>127560631</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>The good: the staff here is really friendly, helpful and capable. They go out of their way to be accommodating. It's nice that they have a little bistro downstairs for meals and drinks!The so-so: Rooms are ok, fairly standard. There's a pool and a fitness center.The bad: half the hotel rooms face the highway and the noise was annoying, fortunately, they weren't full, so I could switch, but if they were full, that would have been a problem.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r126501900-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +2547,45 @@
     <t>I reserved a 1 night stay at this hotel.  after checking out at 11:33 AM the next morning and traveling four hours home, I checked my account.  They had charged me for two nights and are trying to tell me I stayed two night and that is what my original reservation was for.  They said management would look into it and call me back.  Did I get a call back, no.  Did I keep calling them, yes.  They are still telling me I stayed two nights even though I can provide them with receipts from lunch, gas, etc in route back to Dallas, TX.  I don't understand why there system is so flaweed, but as a Marriott Reward member, I'm about to drop them all togther.  I travel a lot on business and someone else is about to get my business.My hope is that they come back and appologize for the misunderstanding, but I have a feeling they will keep fighting me on this one.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r107126186-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>107126186</t>
+  </si>
+  <si>
+    <t>05/06/2011</t>
+  </si>
+  <si>
+    <t>Kind of out of the way and other nits</t>
+  </si>
+  <si>
+    <t>I didn't like the location of this hotel, though it's perfectly adequate I guess. Decent workout facility - they didn't cram the equipment into a odd corner like they do at some hotels. Very small bathroom and no fridge in room were my two biggest issues.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r99601110-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>99601110</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>Construction, roaches, and jacked up prices.</t>
+  </si>
+  <si>
+    <t>Do not stay here until construction is complete! The second floor walls and floor are covered in drywall spackle and paint that sticks to your shoes. The noise during the day made it impossible to carry on a business teleconference, and the rate was raised $20 above the normal rate just for the conference. It was more expensive than the fancier Marriott conference hotel! The room wasn't cleaned the first day, and I found a roach in my bed the third night, and when checking to make sure it wasn't bedbugs, I found boogers on the bedskirt. To be fair, the room is generally pretty, the bed is comfortable, and the bathroom is clean. The staff has been polite and friendly, but the hotel should not be gouging rates when it's a complete mess!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Do not stay here until construction is complete! The second floor walls and floor are covered in drywall spackle and paint that sticks to your shoes. The noise during the day made it impossible to carry on a business teleconference, and the rate was raised $20 above the normal rate just for the conference. It was more expensive than the fancier Marriott conference hotel! The room wasn't cleaned the first day, and I found a roach in my bed the third night, and when checking to make sure it wasn't bedbugs, I found boogers on the bedskirt. To be fair, the room is generally pretty, the bed is comfortable, and the bathroom is clean. The staff has been polite and friendly, but the hotel should not be gouging rates when it's a complete mess!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r98085926-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +2652,45 @@
     <t>I am a frequent business traveler and often stay at Courtyards. I was very disappointed in this one.  My room seemed to have a layer of grime in places that are never cleaned (the basics were clean - bed, sink, bath), but the floor was covered in such a thick layer of dirt that my sock bottoms turned black after walking on the carpet. I would not stay here again, until its updated and refurbished.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r58269491-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>58269491</t>
+  </si>
+  <si>
+    <t>03/10/2010</t>
+  </si>
+  <si>
+    <t>Do not stay here !  Old and not friendly.</t>
+  </si>
+  <si>
+    <t>My husband and I always stay at Courtyards when we travel with my high school swim team.  This one was awful.  The staff was not friendly, nor helpful.  The hotel was old, and the rooms were so SMALL.  There have been no upgrades to this hotel like you see in most other Courtyards.  In fact, it is hard for me to believe this is even part of the Marriott chain.  It even "smelled" old.  We stayed out of the hotel as much as possible.  Thankfully, the Woodlands offers so much to do and you don't have to be stuck at this nasty place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>My husband and I always stay at Courtyards when we travel with my high school swim team.  This one was awful.  The staff was not friendly, nor helpful.  The hotel was old, and the rooms were so SMALL.  There have been no upgrades to this hotel like you see in most other Courtyards.  In fact, it is hard for me to believe this is even part of the Marriott chain.  It even "smelled" old.  We stayed out of the hotel as much as possible.  Thankfully, the Woodlands offers so much to do and you don't have to be stuck at this nasty place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r53573464-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>53573464</t>
+  </si>
+  <si>
+    <t>01/15/2010</t>
+  </si>
+  <si>
+    <t>Disappointed for a Courtyard</t>
+  </si>
+  <si>
+    <t>I had to make a last minute reservation here. I agree with the previous user who said this hotel has not kept  up with the upgrades for Courtyards. I am disappointed. I am a platinum and have over 150 Marriott nights per year. I will stay at a different Marriott next time I need to come to this area.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r25149046-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1738,6 +2755,39 @@
   </si>
   <si>
     <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r13774869-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>13774869</t>
+  </si>
+  <si>
+    <t>02/22/2008</t>
+  </si>
+  <si>
+    <t>A Solid four rating</t>
+  </si>
+  <si>
+    <t>I have stayed here a number of times The staff is top notch.Great location. Rooms are clean. Nice lobby. I think you will be happy.If you want the very best in the area try the Marriot nearby, but it will cost much more.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r11971876-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>11971876</t>
+  </si>
+  <si>
+    <t>12/26/2007</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here one night and used my Marriott points.  Although the room was small, the bed was comfortable.  It is very convenient to the Woodlands Mall.  The front desk clerk recommended an excellent Italian restaurant.  I would stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106245-r2811373-Courtyard_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -2296,22 +3346,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2327,56 +3379,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2392,54 +3436,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2455,52 +3497,56 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2516,40 +3562,42 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -2558,14 +3606,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" t="s">
-        <v>91</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2581,55 +3625,49 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
         <v>97</v>
@@ -2669,31 +3707,35 @@
         <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
         <v>105</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>106</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -2709,31 +3751,35 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
         <v>112</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2787,20 +3833,24 @@
         <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2839,40 +3889,46 @@
         <v>126</v>
       </c>
       <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
         <v>127</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>128</v>
       </c>
-      <c r="L11" t="s">
-        <v>129</v>
-      </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2888,58 +3944,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2955,7 +4005,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2964,43 +4014,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -3016,7 +4070,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3025,25 +4079,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3054,10 +4108,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -3073,7 +4131,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3082,26 +4140,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
-        <v>157</v>
-      </c>
-      <c r="O15" t="s">
-        <v>72</v>
-      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -3112,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -3134,7 +4188,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3143,25 +4197,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3173,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -3195,7 +4249,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3204,39 +4258,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -3252,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3261,33 +4323,33 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -3297,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -3319,7 +4381,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3328,25 +4390,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3358,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -3380,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3389,32 +4451,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3423,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -3445,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3454,45 +4518,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3508,52 +4570,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
         <v>215</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>216</v>
       </c>
-      <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>217</v>
       </c>
-      <c r="L22" t="s">
-        <v>218</v>
-      </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -3569,7 +4631,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3578,30 +4640,30 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
@@ -3612,13 +4674,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -3634,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3643,47 +4705,37 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>226</v>
-      </c>
-      <c r="X24" t="s">
-        <v>227</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
         <v>234</v>
       </c>
@@ -3725,10 +4777,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3783,13 +4835,13 @@
         <v>247</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
         <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3847,10 +4899,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3862,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -3884,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3893,49 +4945,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>249</v>
-      </c>
-      <c r="X28" t="s">
-        <v>250</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
@@ -3951,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3960,47 +5002,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s">
-        <v>269</v>
-      </c>
-      <c r="O29" t="s">
-        <v>189</v>
-      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
@@ -4016,7 +5050,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4025,31 +5059,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4059,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
@@ -4081,7 +5117,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4090,25 +5126,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4120,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
@@ -4142,7 +5178,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4151,45 +5187,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
@@ -4205,7 +5245,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4214,45 +5254,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
       </c>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
@@ -4268,7 +5312,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4277,43 +5321,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>303</v>
       </c>
-      <c r="K34" t="s">
-        <v>304</v>
-      </c>
-      <c r="L34" t="s">
-        <v>305</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>295</v>
-      </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>312</v>
+      </c>
+      <c r="X34" t="s">
+        <v>313</v>
+      </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
@@ -4329,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4338,32 +5386,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4371,14 +5421,10 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>312</v>
-      </c>
-      <c r="X35" t="s">
-        <v>313</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -4394,7 +5440,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4403,29 +5449,29 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
         <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
@@ -4436,12 +5482,8 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>321</v>
-      </c>
-      <c r="X36" t="s">
-        <v>322</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
         <v>323</v>
       </c>
@@ -4459,7 +5501,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4468,43 +5510,45 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
         <v>329</v>
-      </c>
-      <c r="X37" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -4520,43 +5564,43 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>332</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>333</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>334</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>335</v>
       </c>
-      <c r="L38" t="s">
-        <v>336</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4564,14 +5608,10 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>338</v>
-      </c>
-      <c r="X38" t="s">
-        <v>339</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4587,40 +5627,40 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>341</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>342</v>
-      </c>
-      <c r="J39" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" t="s">
-        <v>344</v>
-      </c>
-      <c r="L39" t="s">
-        <v>345</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>346</v>
-      </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4630,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4652,58 +5692,58 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
         <v>348</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>349</v>
-      </c>
-      <c r="J40" t="s">
-        <v>350</v>
-      </c>
-      <c r="K40" t="s">
-        <v>351</v>
-      </c>
-      <c r="L40" t="s">
-        <v>352</v>
-      </c>
       <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>4</v>
       </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
@@ -4719,7 +5759,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4728,45 +5768,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
@@ -4782,7 +5820,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4791,45 +5829,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>355</v>
+      </c>
+      <c r="X42" t="s">
+        <v>356</v>
+      </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
@@ -4845,48 +5887,56 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>369</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>370</v>
-      </c>
-      <c r="J43" t="s">
-        <v>371</v>
-      </c>
-      <c r="K43" t="s">
-        <v>372</v>
-      </c>
-      <c r="L43" t="s">
-        <v>373</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>361</v>
-      </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" t="s">
+        <v>371</v>
+      </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
@@ -4902,56 +5952,50 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
         <v>375</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>376</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
         <v>377</v>
       </c>
-      <c r="K44" t="s">
+      <c r="X44" t="s">
         <v>378</v>
       </c>
-      <c r="L44" t="s">
-        <v>379</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>380</v>
-      </c>
-      <c r="O44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
-      <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
       <c r="Y44" t="s">
         <v>379</v>
       </c>
@@ -4969,62 +6013,52 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>381</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>382</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>383</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>384</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>385</v>
       </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>380</v>
-      </c>
       <c r="O45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y45" t="s">
         <v>386</v>
-      </c>
-      <c r="X45" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="46">
@@ -5040,62 +6074,58 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
         <v>389</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>390</v>
       </c>
-      <c r="J46" t="s">
-        <v>391</v>
-      </c>
-      <c r="K46" t="s">
-        <v>392</v>
-      </c>
-      <c r="L46" t="s">
-        <v>393</v>
-      </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>4</v>
       </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="X46" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="Y46" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
@@ -5111,7 +6141,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5120,39 +6150,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K47" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>398</v>
+      </c>
+      <c r="X47" t="s">
+        <v>399</v>
+      </c>
       <c r="Y47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
@@ -5168,45 +6206,43 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
         <v>403</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>404</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>405</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
         <v>406</v>
       </c>
-      <c r="L48" t="s">
-        <v>407</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>402</v>
-      </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5214,10 +6250,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>407</v>
+      </c>
+      <c r="X48" t="s">
+        <v>408</v>
+      </c>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
@@ -5233,7 +6273,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5242,39 +6282,47 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>397</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
         <v>415</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="50">
@@ -5290,48 +6338,56 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
         <v>417</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>418</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>419</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>420</v>
       </c>
-      <c r="L50" t="s">
-        <v>421</v>
-      </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="O50" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
@@ -5347,7 +6403,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5356,25 +6412,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5432,26 +6488,22 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5459,7 +6511,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53">
@@ -5496,22 +6548,20 @@
         <v>442</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -5522,7 +6572,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
@@ -5538,7 +6588,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5547,32 +6597,38 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
@@ -5619,26 +6675,22 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
         <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5646,7 +6698,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
@@ -5662,50 +6714,44 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
         <v>457</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>458</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>459</v>
       </c>
-      <c r="K56" t="s">
-        <v>460</v>
-      </c>
-      <c r="L56" t="s">
-        <v>461</v>
-      </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
         <v>5</v>
       </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5713,7 +6759,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57">
@@ -5729,58 +6775,52 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
         <v>463</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>464</v>
       </c>
-      <c r="J57" t="s">
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
         <v>465</v>
       </c>
-      <c r="K57" t="s">
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
         <v>466</v>
       </c>
-      <c r="L57" t="s">
+      <c r="X57" t="s">
         <v>467</v>
       </c>
-      <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>462</v>
-      </c>
-      <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
-      <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58">
@@ -5796,7 +6836,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5805,38 +6845,34 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="O58" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
         <v>5</v>
@@ -5844,10 +6880,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>474</v>
+      </c>
+      <c r="X58" t="s">
+        <v>475</v>
+      </c>
       <c r="Y58" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59">
@@ -5863,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5872,49 +6912,47 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J59" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K59" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L59" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
       </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>474</v>
+      </c>
+      <c r="X59" t="s">
+        <v>475</v>
+      </c>
       <c r="Y59" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60">
@@ -5930,7 +6968,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5939,38 +6977,32 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J60" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K60" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O60" t="s">
-        <v>189</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -5978,10 +7010,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>489</v>
+      </c>
+      <c r="X60" t="s">
+        <v>490</v>
+      </c>
       <c r="Y60" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61">
@@ -5997,7 +7033,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6006,49 +7042,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
         <v>488</v>
       </c>
-      <c r="J61" t="s">
-        <v>489</v>
-      </c>
-      <c r="K61" t="s">
-        <v>490</v>
-      </c>
-      <c r="L61" t="s">
-        <v>491</v>
-      </c>
-      <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>492</v>
-      </c>
       <c r="O61" t="s">
-        <v>72</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>497</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
       <c r="Y61" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62">
@@ -6064,7 +7094,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6073,49 +7103,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>506</v>
+      </c>
+      <c r="X62" t="s">
+        <v>507</v>
+      </c>
       <c r="Y62" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63">
@@ -6131,7 +7161,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6140,49 +7170,47 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="J63" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K63" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>514</v>
+      </c>
+      <c r="X63" t="s">
+        <v>515</v>
+      </c>
       <c r="Y63" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64">
@@ -6198,46 +7226,42 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>518</v>
+      </c>
+      <c r="J64" t="s">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s">
+        <v>521</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
         <v>505</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
-        <v>506</v>
-      </c>
-      <c r="J64" t="s">
-        <v>507</v>
-      </c>
-      <c r="K64" t="s">
-        <v>508</v>
-      </c>
-      <c r="L64" t="s">
-        <v>509</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
-        <v>499</v>
-      </c>
       <c r="O64" t="s">
-        <v>104</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
@@ -6246,10 +7270,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X64" t="s">
+        <v>523</v>
+      </c>
       <c r="Y64" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65">
@@ -6265,7 +7293,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6274,38 +7302,32 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="J65" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="K65" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="L65" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
       <c r="R65" t="n">
-        <v>4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6313,10 +7335,14 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
       <c r="Y65" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66">
@@ -6332,7 +7358,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6341,45 +7367,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="J66" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="K66" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
-      </c>
-      <c r="N66" t="s">
-        <v>522</v>
-      </c>
-      <c r="O66" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>538</v>
+      </c>
       <c r="Y66" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67">
@@ -6395,7 +7425,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6404,45 +7434,53 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="J67" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K67" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="L67" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="O67" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
       </c>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
       <c r="S67" t="n">
         <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>545</v>
+      </c>
+      <c r="X67" t="s">
+        <v>546</v>
+      </c>
       <c r="Y67" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68">
@@ -6458,7 +7496,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6467,49 +7505,43 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="J68" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="K68" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="L68" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="O68" t="s">
-        <v>189</v>
-      </c>
-      <c r="P68" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>3</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>545</v>
+      </c>
+      <c r="X68" t="s">
+        <v>546</v>
+      </c>
       <c r="Y68" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69">
@@ -6525,7 +7557,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6534,41 +7566,37 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="J69" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="K69" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="L69" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="O69" t="s">
         <v>53</v>
       </c>
-      <c r="P69" t="n">
-        <v>4</v>
-      </c>
+      <c r="P69" t="s"/>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6576,7 +7604,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="70">
@@ -6592,7 +7620,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6601,38 +7629,34 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="J70" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="K70" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="L70" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
         <v>3</v>
       </c>
-      <c r="Q70" t="n">
-        <v>2</v>
-      </c>
-      <c r="R70" t="n">
-        <v>5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2</v>
-      </c>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
         <v>3</v>
@@ -6640,14 +7664,10 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>549</v>
-      </c>
-      <c r="X70" t="s">
-        <v>550</v>
-      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71">
@@ -6663,7 +7683,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6672,53 +7692,39 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="J71" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="K71" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="L71" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="O71" t="s">
-        <v>80</v>
-      </c>
-      <c r="P71" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>3</v>
-      </c>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="n">
-        <v>1</v>
-      </c>
+      <c r="U71" t="s"/>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>558</v>
-      </c>
-      <c r="X71" t="s">
-        <v>559</v>
-      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72">
@@ -6734,7 +7740,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6743,49 +7749,43 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="J72" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="K72" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="L72" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>4</v>
-      </c>
-      <c r="R72" t="n">
-        <v>5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
-      <c r="U72" t="n">
-        <v>5</v>
-      </c>
+      <c r="U72" t="s"/>
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>580</v>
+      </c>
+      <c r="X72" t="s">
+        <v>581</v>
+      </c>
       <c r="Y72" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73">
@@ -6801,7 +7801,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6810,41 +7810,37 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="J73" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="L73" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="O73" t="s">
         <v>53</v>
       </c>
-      <c r="P73" t="n">
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
         <v>3</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>2</v>
-      </c>
-      <c r="R73" t="n">
-        <v>4</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6852,7 +7848,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74">
@@ -6868,7 +7864,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6877,35 +7873,3343 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="J74" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="K74" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="L74" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
-      <c r="P74" t="s"/>
-      <c r="Q74" t="s"/>
-      <c r="R74" t="s"/>
-      <c r="S74" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>595</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
       <c r="T74" t="s"/>
-      <c r="U74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>578</v>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>595</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>601</v>
+      </c>
+      <c r="X75" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>604</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>605</v>
+      </c>
+      <c r="J76" t="s">
+        <v>606</v>
+      </c>
+      <c r="K76" t="s">
+        <v>607</v>
+      </c>
+      <c r="L76" t="s">
+        <v>608</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>609</v>
+      </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>610</v>
+      </c>
+      <c r="X76" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>613</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>614</v>
+      </c>
+      <c r="J77" t="s">
+        <v>615</v>
+      </c>
+      <c r="K77" t="s">
+        <v>616</v>
+      </c>
+      <c r="L77" t="s">
+        <v>617</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>609</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>618</v>
+      </c>
+      <c r="X77" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>621</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>622</v>
+      </c>
+      <c r="J78" t="s">
+        <v>623</v>
+      </c>
+      <c r="K78" t="s">
+        <v>624</v>
+      </c>
+      <c r="L78" t="s">
+        <v>625</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>626</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>627</v>
+      </c>
+      <c r="X78" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>630</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>631</v>
+      </c>
+      <c r="J79" t="s">
+        <v>632</v>
+      </c>
+      <c r="K79" t="s">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s">
+        <v>633</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>634</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>635</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>636</v>
+      </c>
+      <c r="J80" t="s">
+        <v>637</v>
+      </c>
+      <c r="K80" t="s">
+        <v>638</v>
+      </c>
+      <c r="L80" t="s">
+        <v>639</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>634</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>641</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>642</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>644</v>
+      </c>
+      <c r="L81" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>646</v>
+      </c>
+      <c r="X81" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>649</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>650</v>
+      </c>
+      <c r="J82" t="s">
+        <v>651</v>
+      </c>
+      <c r="K82" t="s">
+        <v>652</v>
+      </c>
+      <c r="L82" t="s">
+        <v>653</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>654</v>
+      </c>
+      <c r="O82" t="s">
+        <v>86</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>656</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>657</v>
+      </c>
+      <c r="J83" t="s">
+        <v>658</v>
+      </c>
+      <c r="K83" t="s">
+        <v>659</v>
+      </c>
+      <c r="L83" t="s">
+        <v>660</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>661</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>662</v>
+      </c>
+      <c r="J84" t="s">
+        <v>663</v>
+      </c>
+      <c r="K84" t="s">
+        <v>664</v>
+      </c>
+      <c r="L84" t="s">
+        <v>665</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>666</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>667</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>668</v>
+      </c>
+      <c r="J85" t="s">
+        <v>669</v>
+      </c>
+      <c r="K85" t="s">
+        <v>670</v>
+      </c>
+      <c r="L85" t="s">
+        <v>671</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>672</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>673</v>
+      </c>
+      <c r="X85" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>676</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>677</v>
+      </c>
+      <c r="J86" t="s">
+        <v>678</v>
+      </c>
+      <c r="K86" t="s">
+        <v>679</v>
+      </c>
+      <c r="L86" t="s">
+        <v>680</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>672</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>682</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>683</v>
+      </c>
+      <c r="J87" t="s">
+        <v>684</v>
+      </c>
+      <c r="K87" t="s">
+        <v>685</v>
+      </c>
+      <c r="L87" t="s">
+        <v>686</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>687</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>688</v>
+      </c>
+      <c r="J88" t="s">
+        <v>689</v>
+      </c>
+      <c r="K88" t="s">
+        <v>690</v>
+      </c>
+      <c r="L88" t="s">
+        <v>691</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>692</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>693</v>
+      </c>
+      <c r="X88" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>696</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>697</v>
+      </c>
+      <c r="J89" t="s">
+        <v>698</v>
+      </c>
+      <c r="K89" t="s">
+        <v>699</v>
+      </c>
+      <c r="L89" t="s">
+        <v>700</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>701</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>702</v>
+      </c>
+      <c r="J90" t="s">
+        <v>703</v>
+      </c>
+      <c r="K90" t="s">
+        <v>704</v>
+      </c>
+      <c r="L90" t="s">
+        <v>705</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>706</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>708</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>709</v>
+      </c>
+      <c r="J91" t="s">
+        <v>710</v>
+      </c>
+      <c r="K91" t="s">
+        <v>711</v>
+      </c>
+      <c r="L91" t="s">
+        <v>712</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>713</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>571</v>
+      </c>
+      <c r="L92" t="s">
+        <v>718</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>713</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>719</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>720</v>
+      </c>
+      <c r="J93" t="s">
+        <v>721</v>
+      </c>
+      <c r="K93" t="s">
+        <v>722</v>
+      </c>
+      <c r="L93" t="s">
+        <v>723</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>724</v>
+      </c>
+      <c r="O93" t="s">
+        <v>86</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>726</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>727</v>
+      </c>
+      <c r="J94" t="s">
+        <v>728</v>
+      </c>
+      <c r="K94" t="s">
+        <v>729</v>
+      </c>
+      <c r="L94" t="s">
+        <v>730</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>731</v>
+      </c>
+      <c r="O94" t="s">
+        <v>94</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>732</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>733</v>
+      </c>
+      <c r="J95" t="s">
+        <v>734</v>
+      </c>
+      <c r="K95" t="s">
+        <v>735</v>
+      </c>
+      <c r="L95" t="s">
+        <v>736</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>731</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>737</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>738</v>
+      </c>
+      <c r="J96" t="s">
+        <v>739</v>
+      </c>
+      <c r="K96" t="s">
+        <v>740</v>
+      </c>
+      <c r="L96" t="s">
+        <v>741</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>742</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>744</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>745</v>
+      </c>
+      <c r="J97" t="s">
+        <v>746</v>
+      </c>
+      <c r="K97" t="s">
+        <v>747</v>
+      </c>
+      <c r="L97" t="s">
+        <v>748</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>750</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>751</v>
+      </c>
+      <c r="J98" t="s">
+        <v>752</v>
+      </c>
+      <c r="K98" t="s">
+        <v>753</v>
+      </c>
+      <c r="L98" t="s">
+        <v>754</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>742</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>755</v>
+      </c>
+      <c r="X98" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" t="s">
+        <v>760</v>
+      </c>
+      <c r="K99" t="s">
+        <v>761</v>
+      </c>
+      <c r="L99" t="s">
+        <v>762</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>764</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>765</v>
+      </c>
+      <c r="J100" t="s">
+        <v>766</v>
+      </c>
+      <c r="K100" t="s">
+        <v>767</v>
+      </c>
+      <c r="L100" t="s">
+        <v>768</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>769</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>770</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>771</v>
+      </c>
+      <c r="J101" t="s">
+        <v>772</v>
+      </c>
+      <c r="K101" t="s">
+        <v>773</v>
+      </c>
+      <c r="L101" t="s">
+        <v>774</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>775</v>
+      </c>
+      <c r="O101" t="s">
+        <v>86</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>777</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>778</v>
+      </c>
+      <c r="J102" t="s">
+        <v>779</v>
+      </c>
+      <c r="K102" t="s">
+        <v>780</v>
+      </c>
+      <c r="L102" t="s">
+        <v>781</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>782</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>783</v>
+      </c>
+      <c r="X102" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>786</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>787</v>
+      </c>
+      <c r="J103" t="s">
+        <v>788</v>
+      </c>
+      <c r="K103" t="s">
+        <v>789</v>
+      </c>
+      <c r="L103" t="s">
+        <v>790</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>791</v>
+      </c>
+      <c r="O103" t="s">
+        <v>94</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>792</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>793</v>
+      </c>
+      <c r="J104" t="s">
+        <v>794</v>
+      </c>
+      <c r="K104" t="s">
+        <v>795</v>
+      </c>
+      <c r="L104" t="s">
+        <v>796</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>797</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>798</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>799</v>
+      </c>
+      <c r="J105" t="s">
+        <v>800</v>
+      </c>
+      <c r="K105" t="s">
+        <v>801</v>
+      </c>
+      <c r="L105" t="s">
+        <v>802</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>797</v>
+      </c>
+      <c r="O105" t="s">
+        <v>86</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>803</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>804</v>
+      </c>
+      <c r="J106" t="s">
+        <v>805</v>
+      </c>
+      <c r="K106" t="s">
+        <v>806</v>
+      </c>
+      <c r="L106" t="s">
+        <v>807</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>797</v>
+      </c>
+      <c r="O106" t="s">
+        <v>94</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>809</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>810</v>
+      </c>
+      <c r="J107" t="s">
+        <v>811</v>
+      </c>
+      <c r="K107" t="s">
+        <v>812</v>
+      </c>
+      <c r="L107" t="s">
+        <v>813</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>814</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>815</v>
+      </c>
+      <c r="X107" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>818</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>819</v>
+      </c>
+      <c r="J108" t="s">
+        <v>820</v>
+      </c>
+      <c r="K108" t="s">
+        <v>821</v>
+      </c>
+      <c r="L108" t="s">
+        <v>822</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>823</v>
+      </c>
+      <c r="O108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>824</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>825</v>
+      </c>
+      <c r="J109" t="s">
+        <v>826</v>
+      </c>
+      <c r="K109" t="s">
+        <v>827</v>
+      </c>
+      <c r="L109" t="s">
+        <v>828</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>829</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>830</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>831</v>
+      </c>
+      <c r="J110" t="s">
+        <v>832</v>
+      </c>
+      <c r="K110" t="s">
+        <v>833</v>
+      </c>
+      <c r="L110" t="s">
+        <v>834</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>835</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>836</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>837</v>
+      </c>
+      <c r="J111" t="s">
+        <v>838</v>
+      </c>
+      <c r="K111" t="s">
+        <v>839</v>
+      </c>
+      <c r="L111" t="s">
+        <v>840</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>841</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>843</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>844</v>
+      </c>
+      <c r="J112" t="s">
+        <v>845</v>
+      </c>
+      <c r="K112" t="s">
+        <v>846</v>
+      </c>
+      <c r="L112" t="s">
+        <v>847</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>848</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>849</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>850</v>
+      </c>
+      <c r="J113" t="s">
+        <v>851</v>
+      </c>
+      <c r="K113" t="s">
+        <v>852</v>
+      </c>
+      <c r="L113" t="s">
+        <v>853</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s">
+        <v>854</v>
+      </c>
+      <c r="O113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>856</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>857</v>
+      </c>
+      <c r="J114" t="s">
+        <v>858</v>
+      </c>
+      <c r="K114" t="s">
+        <v>859</v>
+      </c>
+      <c r="L114" t="s">
+        <v>860</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>861</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>863</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>864</v>
+      </c>
+      <c r="J115" t="s">
+        <v>865</v>
+      </c>
+      <c r="K115" t="s">
+        <v>866</v>
+      </c>
+      <c r="L115" t="s">
+        <v>867</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s">
+        <v>868</v>
+      </c>
+      <c r="O115" t="s">
+        <v>60</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>869</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>870</v>
+      </c>
+      <c r="J116" t="s">
+        <v>871</v>
+      </c>
+      <c r="K116" t="s">
+        <v>872</v>
+      </c>
+      <c r="L116" t="s">
+        <v>873</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>874</v>
+      </c>
+      <c r="O116" t="s">
+        <v>60</v>
+      </c>
+      <c r="P116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>2</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>875</v>
+      </c>
+      <c r="X116" t="s">
+        <v>876</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>878</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>879</v>
+      </c>
+      <c r="J117" t="s">
+        <v>880</v>
+      </c>
+      <c r="K117" t="s">
+        <v>881</v>
+      </c>
+      <c r="L117" t="s">
+        <v>882</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>883</v>
+      </c>
+      <c r="O117" t="s">
+        <v>60</v>
+      </c>
+      <c r="P117" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>875</v>
+      </c>
+      <c r="X117" t="s">
+        <v>876</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>885</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>886</v>
+      </c>
+      <c r="J118" t="s">
+        <v>887</v>
+      </c>
+      <c r="K118" t="s">
+        <v>888</v>
+      </c>
+      <c r="L118" t="s">
+        <v>889</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="s">
+        <v>890</v>
+      </c>
+      <c r="O118" t="s">
+        <v>60</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>891</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>892</v>
+      </c>
+      <c r="J119" t="s">
+        <v>893</v>
+      </c>
+      <c r="K119" t="s">
+        <v>894</v>
+      </c>
+      <c r="L119" t="s">
+        <v>895</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>896</v>
+      </c>
+      <c r="O119" t="s">
+        <v>112</v>
+      </c>
+      <c r="P119" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>4</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s">
+        <v>897</v>
+      </c>
+      <c r="X119" t="s">
+        <v>898</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>900</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>901</v>
+      </c>
+      <c r="J120" t="s">
+        <v>902</v>
+      </c>
+      <c r="K120" t="s">
+        <v>903</v>
+      </c>
+      <c r="L120" t="s">
+        <v>904</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>905</v>
+      </c>
+      <c r="O120" t="s">
+        <v>60</v>
+      </c>
+      <c r="P120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>907</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>908</v>
+      </c>
+      <c r="J121" t="s">
+        <v>909</v>
+      </c>
+      <c r="K121" t="s">
+        <v>910</v>
+      </c>
+      <c r="L121" t="s">
+        <v>911</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3</v>
+      </c>
+      <c r="N121" t="s">
+        <v>912</v>
+      </c>
+      <c r="O121" t="s">
+        <v>60</v>
+      </c>
+      <c r="P121" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>3</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>913</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>914</v>
+      </c>
+      <c r="J122" t="s">
+        <v>915</v>
+      </c>
+      <c r="K122" t="s">
+        <v>916</v>
+      </c>
+      <c r="L122" t="s">
+        <v>917</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>918</v>
+      </c>
+      <c r="O122" t="s">
+        <v>86</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>4</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>919</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>920</v>
+      </c>
+      <c r="J123" t="s">
+        <v>921</v>
+      </c>
+      <c r="K123" t="s">
+        <v>922</v>
+      </c>
+      <c r="L123" t="s">
+        <v>923</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s"/>
+      <c r="O123" t="s"/>
+      <c r="P123" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>34703</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>924</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>925</v>
+      </c>
+      <c r="J124" t="s">
+        <v>926</v>
+      </c>
+      <c r="K124" t="s">
+        <v>927</v>
+      </c>
+      <c r="L124" t="s">
+        <v>928</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="s"/>
+      <c r="O124" t="s"/>
+      <c r="P124" t="s"/>
+      <c r="Q124" t="s"/>
+      <c r="R124" t="s"/>
+      <c r="S124" t="s"/>
+      <c r="T124" t="s"/>
+      <c r="U124" t="s"/>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>
